--- a/python/math/polynomial/50-examples-properties.xlsx
+++ b/python/math/polynomial/50-examples-properties.xlsx
@@ -10,8 +10,7 @@
   <sheets>
     <sheet name="least²" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="example" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="least²-all" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="compare" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="compare" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="124">
   <si>
     <t xml:space="preserve">Least Square</t>
   </si>
@@ -403,64 +402,31 @@
     <t xml:space="preserve">MSE</t>
   </si>
   <si>
-    <t xml:space="preserve">Additional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not required to find solution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.∑1 + b.∑x = ∑y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∑1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∑x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
+    <t xml:space="preserve">Linear Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Order Polynomial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third Order Polynomial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y = a + bx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y = a + bx + cx²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y = a + bx + cx² + dx³</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coeff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∑y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.∑x + b.∑x² = ∑xy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∑x²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∑xy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Order Polynomial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Order Polynomial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y = a + bx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y = a + bx + cx²</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y = a + bx + cx² + dx³</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coeff.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -592,7 +558,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2DFDB"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -602,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -657,17 +623,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF009688"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF009688"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
     <border diagonalUp="true" diagonalDown="true">
       <left style="thin">
         <color rgb="FF009688"/>
@@ -703,7 +658,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -872,18 +827,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -900,7 +843,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -938,7 +881,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF1976D2"/>
-      <rgbColor rgb="FFB2DFDB"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -951,7 +894,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFF176"/>
-      <rgbColor rgb="FF90CAF9"/>
+      <rgbColor rgb="FFB2DFDB"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -1090,8 +1033,8 @@
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R35" activeCellId="0" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1105,7 +1048,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="2.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="2" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="2.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="15" style="0" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="15" style="2" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="2.56"/>
   </cols>
   <sheetData>
@@ -2575,8 +2518,8 @@
   </sheetPr>
   <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3912,1351 +3855,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF90CAF9"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R54"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="2.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="4" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="2.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="2.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="2.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="3" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="2.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="3" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="4" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="2.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="20" style="3" width="11.56"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="K5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="O5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12" t="n">
-        <v>4.99999999999795</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <f aca="false">B7-$B$30</f>
-        <v>-6</v>
-      </c>
-      <c r="F7" s="12" t="n">
-        <f aca="false">C7-$C$30</f>
-        <v>-174.000000000002</v>
-      </c>
-      <c r="H7" s="13" t="n">
-        <f aca="false">E7^2</f>
-        <v>36</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <f aca="false">E7*F7</f>
-        <v>1044.00000000001</v>
-      </c>
-      <c r="K7" s="13" t="n">
-        <f aca="false">E7^2</f>
-        <v>36</v>
-      </c>
-      <c r="L7" s="12" t="n">
-        <f aca="false">F7^2</f>
-        <v>30276.0000000009</v>
-      </c>
-      <c r="M7" s="12" t="n">
-        <f aca="false">E7*F7</f>
-        <v>1044.00000000001</v>
-      </c>
-      <c r="O7" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B7</f>
-        <v>-61.0000000000011</v>
-      </c>
-      <c r="P7" s="12" t="n">
-        <f aca="false">C7-O7</f>
-        <v>65.999999999999</v>
-      </c>
-      <c r="Q7" s="12" t="n">
-        <f aca="false">P7^2</f>
-        <v>4355.99999999987</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12" t="n">
-        <v>11.9999999999987</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <f aca="false">B8-$B$30</f>
-        <v>-5</v>
-      </c>
-      <c r="F8" s="12" t="n">
-        <f aca="false">C8-$C$30</f>
-        <v>-167.000000000002</v>
-      </c>
-      <c r="H8" s="13" t="n">
-        <f aca="false">E8^2</f>
-        <v>25</v>
-      </c>
-      <c r="I8" s="12" t="n">
-        <f aca="false">E8*F8</f>
-        <v>835.000000000009</v>
-      </c>
-      <c r="K8" s="13" t="n">
-        <f aca="false">E8^2</f>
-        <v>25</v>
-      </c>
-      <c r="L8" s="12" t="n">
-        <f aca="false">F8^2</f>
-        <v>27889.0000000006</v>
-      </c>
-      <c r="M8" s="12" t="n">
-        <f aca="false">E8*F8</f>
-        <v>835.000000000009</v>
-      </c>
-      <c r="O8" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B8</f>
-        <v>-21.0000000000008</v>
-      </c>
-      <c r="P8" s="12" t="n">
-        <f aca="false">C8-O8</f>
-        <v>32.9999999999995</v>
-      </c>
-      <c r="Q8" s="12" t="n">
-        <f aca="false">P8^2</f>
-        <v>1088.99999999997</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12" t="n">
-        <v>24.9999999999993</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <f aca="false">B9-$B$30</f>
-        <v>-4</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <f aca="false">C9-$C$30</f>
-        <v>-154.000000000001</v>
-      </c>
-      <c r="H9" s="13" t="n">
-        <f aca="false">E9^2</f>
-        <v>16</v>
-      </c>
-      <c r="I9" s="12" t="n">
-        <f aca="false">E9*F9</f>
-        <v>616.000000000004</v>
-      </c>
-      <c r="K9" s="13" t="n">
-        <f aca="false">E9^2</f>
-        <v>16</v>
-      </c>
-      <c r="L9" s="12" t="n">
-        <f aca="false">F9^2</f>
-        <v>23716.0000000003</v>
-      </c>
-      <c r="M9" s="12" t="n">
-        <f aca="false">E9*F9</f>
-        <v>616.000000000004</v>
-      </c>
-      <c r="O9" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B9</f>
-        <v>18.9999999999994</v>
-      </c>
-      <c r="P9" s="12" t="n">
-        <f aca="false">C9-O9</f>
-        <v>5.99999999999987</v>
-      </c>
-      <c r="Q9" s="12" t="n">
-        <f aca="false">P9^2</f>
-        <v>35.9999999999984</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12" t="n">
-        <v>43.9999999999998</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <f aca="false">B10-$B$30</f>
-        <v>-3</v>
-      </c>
-      <c r="F10" s="12" t="n">
-        <f aca="false">C10-$C$30</f>
-        <v>-135.000000000001</v>
-      </c>
-      <c r="H10" s="13" t="n">
-        <f aca="false">E10^2</f>
-        <v>9</v>
-      </c>
-      <c r="I10" s="12" t="n">
-        <f aca="false">E10*F10</f>
-        <v>405.000000000002</v>
-      </c>
-      <c r="K10" s="13" t="n">
-        <f aca="false">E10^2</f>
-        <v>9</v>
-      </c>
-      <c r="L10" s="12" t="n">
-        <f aca="false">F10^2</f>
-        <v>18225.0000000002</v>
-      </c>
-      <c r="M10" s="12" t="n">
-        <f aca="false">E10*F10</f>
-        <v>405.000000000002</v>
-      </c>
-      <c r="O10" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B10</f>
-        <v>58.9999999999997</v>
-      </c>
-      <c r="P10" s="12" t="n">
-        <f aca="false">C10-O10</f>
-        <v>-14.9999999999999</v>
-      </c>
-      <c r="Q10" s="12" t="n">
-        <f aca="false">P10^2</f>
-        <v>224.999999999996</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" s="12" t="n">
-        <v>69.0000000000003</v>
-      </c>
-      <c r="E11" s="13" t="n">
-        <f aca="false">B11-$B$30</f>
-        <v>-2</v>
-      </c>
-      <c r="F11" s="12" t="n">
-        <f aca="false">C11-$C$30</f>
-        <v>-110</v>
-      </c>
-      <c r="H11" s="13" t="n">
-        <f aca="false">E11^2</f>
-        <v>4</v>
-      </c>
-      <c r="I11" s="12" t="n">
-        <f aca="false">E11*F11</f>
-        <v>220</v>
-      </c>
-      <c r="K11" s="13" t="n">
-        <f aca="false">E11^2</f>
-        <v>4</v>
-      </c>
-      <c r="L11" s="12" t="n">
-        <f aca="false">F11^2</f>
-        <v>12100</v>
-      </c>
-      <c r="M11" s="12" t="n">
-        <f aca="false">E11*F11</f>
-        <v>220</v>
-      </c>
-      <c r="O11" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B11</f>
-        <v>98.9999999999999</v>
-      </c>
-      <c r="P11" s="12" t="n">
-        <f aca="false">C11-O11</f>
-        <v>-29.9999999999996</v>
-      </c>
-      <c r="Q11" s="12" t="n">
-        <f aca="false">P11^2</f>
-        <v>899.999999999977</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" s="12" t="n">
-        <v>100.000000000001</v>
-      </c>
-      <c r="E12" s="13" t="n">
-        <f aca="false">B12-$B$30</f>
-        <v>-1</v>
-      </c>
-      <c r="F12" s="12" t="n">
-        <f aca="false">C12-$C$30</f>
-        <v>-78.9999999999994</v>
-      </c>
-      <c r="H12" s="13" t="n">
-        <f aca="false">E12^2</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="12" t="n">
-        <f aca="false">E12*F12</f>
-        <v>78.9999999999994</v>
-      </c>
-      <c r="K12" s="13" t="n">
-        <f aca="false">E12^2</f>
-        <v>1</v>
-      </c>
-      <c r="L12" s="12" t="n">
-        <f aca="false">F12^2</f>
-        <v>6240.99999999991</v>
-      </c>
-      <c r="M12" s="12" t="n">
-        <f aca="false">E12*F12</f>
-        <v>78.9999999999994</v>
-      </c>
-      <c r="O12" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B12</f>
-        <v>139</v>
-      </c>
-      <c r="P12" s="12" t="n">
-        <f aca="false">C12-O12</f>
-        <v>-38.9999999999992</v>
-      </c>
-      <c r="Q12" s="12" t="n">
-        <f aca="false">P12^2</f>
-        <v>1520.99999999993</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" s="12" t="n">
-        <v>137.000000000001</v>
-      </c>
-      <c r="E13" s="13" t="n">
-        <f aca="false">B13-$B$30</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="12" t="n">
-        <f aca="false">C13-$C$30</f>
-        <v>-41.9999999999994</v>
-      </c>
-      <c r="H13" s="13" t="n">
-        <f aca="false">E13^2</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="12" t="n">
-        <f aca="false">E13*F13</f>
-        <v>-0</v>
-      </c>
-      <c r="K13" s="13" t="n">
-        <f aca="false">E13^2</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="12" t="n">
-        <f aca="false">F13^2</f>
-        <v>1763.99999999995</v>
-      </c>
-      <c r="M13" s="12" t="n">
-        <f aca="false">E13*F13</f>
-        <v>-0</v>
-      </c>
-      <c r="O13" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B13</f>
-        <v>179</v>
-      </c>
-      <c r="P13" s="12" t="n">
-        <f aca="false">C13-O13</f>
-        <v>-41.9999999999994</v>
-      </c>
-      <c r="Q13" s="12" t="n">
-        <f aca="false">P13^2</f>
-        <v>1763.99999999995</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" s="12" t="n">
-        <v>180.000000000001</v>
-      </c>
-      <c r="E14" s="13" t="n">
-        <f aca="false">B14-$B$30</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="n">
-        <f aca="false">C14-$C$30</f>
-        <v>1.0000000000006</v>
-      </c>
-      <c r="H14" s="13" t="n">
-        <f aca="false">E14^2</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="12" t="n">
-        <f aca="false">E14*F14</f>
-        <v>1.0000000000006</v>
-      </c>
-      <c r="K14" s="13" t="n">
-        <f aca="false">E14^2</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="12" t="n">
-        <f aca="false">F14^2</f>
-        <v>1.00000000000119</v>
-      </c>
-      <c r="M14" s="12" t="n">
-        <f aca="false">E14*F14</f>
-        <v>1.0000000000006</v>
-      </c>
-      <c r="O14" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B14</f>
-        <v>219.000000000001</v>
-      </c>
-      <c r="P14" s="12" t="n">
-        <f aca="false">C14-O14</f>
-        <v>-38.9999999999997</v>
-      </c>
-      <c r="Q14" s="12" t="n">
-        <f aca="false">P14^2</f>
-        <v>1520.99999999997</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>229.000000000001</v>
-      </c>
-      <c r="E15" s="13" t="n">
-        <f aca="false">B15-$B$30</f>
-        <v>2</v>
-      </c>
-      <c r="F15" s="12" t="n">
-        <f aca="false">C15-$C$30</f>
-        <v>50.0000000000006</v>
-      </c>
-      <c r="H15" s="13" t="n">
-        <f aca="false">E15^2</f>
-        <v>4</v>
-      </c>
-      <c r="I15" s="12" t="n">
-        <f aca="false">E15*F15</f>
-        <v>100.000000000001</v>
-      </c>
-      <c r="K15" s="13" t="n">
-        <f aca="false">E15^2</f>
-        <v>4</v>
-      </c>
-      <c r="L15" s="12" t="n">
-        <f aca="false">F15^2</f>
-        <v>2500.00000000006</v>
-      </c>
-      <c r="M15" s="12" t="n">
-        <f aca="false">E15*F15</f>
-        <v>100.000000000001</v>
-      </c>
-      <c r="O15" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B15</f>
-        <v>259.000000000001</v>
-      </c>
-      <c r="P15" s="12" t="n">
-        <f aca="false">C15-O15</f>
-        <v>-29.9999999999999</v>
-      </c>
-      <c r="Q15" s="12" t="n">
-        <f aca="false">P15^2</f>
-        <v>899.999999999995</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>284.000000000002</v>
-      </c>
-      <c r="E16" s="13" t="n">
-        <f aca="false">B16-$B$30</f>
-        <v>3</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <f aca="false">C16-$C$30</f>
-        <v>105.000000000002</v>
-      </c>
-      <c r="H16" s="13" t="n">
-        <f aca="false">E16^2</f>
-        <v>9</v>
-      </c>
-      <c r="I16" s="12" t="n">
-        <f aca="false">E16*F16</f>
-        <v>315.000000000005</v>
-      </c>
-      <c r="K16" s="13" t="n">
-        <f aca="false">E16^2</f>
-        <v>9</v>
-      </c>
-      <c r="L16" s="12" t="n">
-        <f aca="false">F16^2</f>
-        <v>11025.0000000003</v>
-      </c>
-      <c r="M16" s="12" t="n">
-        <f aca="false">E16*F16</f>
-        <v>315.000000000005</v>
-      </c>
-      <c r="O16" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B16</f>
-        <v>299.000000000001</v>
-      </c>
-      <c r="P16" s="12" t="n">
-        <f aca="false">C16-O16</f>
-        <v>-14.9999999999991</v>
-      </c>
-      <c r="Q16" s="12" t="n">
-        <f aca="false">P16^2</f>
-        <v>224.999999999974</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12" t="n">
-        <v>345.000000000001</v>
-      </c>
-      <c r="E17" s="13" t="n">
-        <f aca="false">B17-$B$30</f>
-        <v>4</v>
-      </c>
-      <c r="F17" s="12" t="n">
-        <f aca="false">C17-$C$30</f>
-        <v>166.000000000001</v>
-      </c>
-      <c r="H17" s="13" t="n">
-        <f aca="false">E17^2</f>
-        <v>16</v>
-      </c>
-      <c r="I17" s="12" t="n">
-        <f aca="false">E17*F17</f>
-        <v>664.000000000003</v>
-      </c>
-      <c r="K17" s="13" t="n">
-        <f aca="false">E17^2</f>
-        <v>16</v>
-      </c>
-      <c r="L17" s="12" t="n">
-        <f aca="false">F17^2</f>
-        <v>27556.0000000002</v>
-      </c>
-      <c r="M17" s="12" t="n">
-        <f aca="false">E17*F17</f>
-        <v>664.000000000003</v>
-      </c>
-      <c r="O17" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B17</f>
-        <v>339.000000000001</v>
-      </c>
-      <c r="P17" s="12" t="n">
-        <f aca="false">C17-O17</f>
-        <v>5.99999999999966</v>
-      </c>
-      <c r="Q17" s="12" t="n">
-        <f aca="false">P17^2</f>
-        <v>35.9999999999959</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" s="12" t="n">
-        <v>412.000000000001</v>
-      </c>
-      <c r="E18" s="13" t="n">
-        <f aca="false">B18-$B$30</f>
-        <v>5</v>
-      </c>
-      <c r="F18" s="12" t="n">
-        <f aca="false">C18-$C$30</f>
-        <v>233.000000000001</v>
-      </c>
-      <c r="H18" s="13" t="n">
-        <f aca="false">E18^2</f>
-        <v>25</v>
-      </c>
-      <c r="I18" s="12" t="n">
-        <f aca="false">E18*F18</f>
-        <v>1165</v>
-      </c>
-      <c r="K18" s="13" t="n">
-        <f aca="false">E18^2</f>
-        <v>25</v>
-      </c>
-      <c r="L18" s="12" t="n">
-        <f aca="false">F18^2</f>
-        <v>54289.0000000003</v>
-      </c>
-      <c r="M18" s="12" t="n">
-        <f aca="false">E18*F18</f>
-        <v>1165</v>
-      </c>
-      <c r="O18" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B18</f>
-        <v>379.000000000002</v>
-      </c>
-      <c r="P18" s="12" t="n">
-        <f aca="false">C18-O18</f>
-        <v>32.9999999999994</v>
-      </c>
-      <c r="Q18" s="12" t="n">
-        <f aca="false">P18^2</f>
-        <v>1088.99999999996</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="C19" s="12" t="n">
-        <v>485.000000000001</v>
-      </c>
-      <c r="E19" s="13" t="n">
-        <f aca="false">B19-$B$30</f>
-        <v>6</v>
-      </c>
-      <c r="F19" s="12" t="n">
-        <f aca="false">C19-$C$30</f>
-        <v>306.000000000001</v>
-      </c>
-      <c r="H19" s="13" t="n">
-        <f aca="false">E19^2</f>
-        <v>36</v>
-      </c>
-      <c r="I19" s="12" t="n">
-        <f aca="false">E19*F19</f>
-        <v>1836</v>
-      </c>
-      <c r="K19" s="13" t="n">
-        <f aca="false">E19^2</f>
-        <v>36</v>
-      </c>
-      <c r="L19" s="12" t="n">
-        <f aca="false">F19^2</f>
-        <v>93636.0000000004</v>
-      </c>
-      <c r="M19" s="12" t="n">
-        <f aca="false">E19*F19</f>
-        <v>1836</v>
-      </c>
-      <c r="O19" s="13" t="n">
-        <f aca="false">$I$26+$H$26*B19</f>
-        <v>419.000000000002</v>
-      </c>
-      <c r="P19" s="12" t="n">
-        <f aca="false">C19-O19</f>
-        <v>65.9999999999992</v>
-      </c>
-      <c r="Q19" s="12" t="n">
-        <f aca="false">P19^2</f>
-        <v>4355.99999999989</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="11" t="n">
-        <f aca="false">SUM(B7:B19)</f>
-        <v>78</v>
-      </c>
-      <c r="C22" s="12" t="n">
-        <f aca="false">SUM(C7:C19)</f>
-        <v>2327.00000000001</v>
-      </c>
-      <c r="E22" s="11" t="n">
-        <f aca="false">SUM(E7:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="12" t="n">
-        <f aca="false">SUM(F7:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="11" t="n">
-        <f aca="false">SUM(H7:H19)</f>
-        <v>182</v>
-      </c>
-      <c r="I22" s="12" t="n">
-        <f aca="false">SUM(I7:I19)</f>
-        <v>7280.00000000005</v>
-      </c>
-      <c r="K22" s="11" t="n">
-        <f aca="false">SUM(K7:K19)</f>
-        <v>182</v>
-      </c>
-      <c r="L22" s="12" t="n">
-        <f aca="false">SUM(L7:L19)</f>
-        <v>309218.000000003</v>
-      </c>
-      <c r="M22" s="12" t="n">
-        <f aca="false">SUM(M7:M19)</f>
-        <v>7280.00000000005</v>
-      </c>
-      <c r="Q22" s="18" t="n">
-        <f aca="false">SUM(Q7:Q19)</f>
-        <v>18017.9999999995</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="E24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="H24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q25" s="18" t="n">
-        <f aca="false">Q22/$E$30</f>
-        <v>1637.99999999995</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="11" t="n">
-        <f aca="false">COUNT(B7:B19)</f>
-        <v>13</v>
-      </c>
-      <c r="C26" s="12" t="n">
-        <f aca="false">COUNT(C7:C19)</f>
-        <v>13</v>
-      </c>
-      <c r="E26" s="11" t="n">
-        <f aca="false">COUNT(B7:B19)-1</f>
-        <v>12</v>
-      </c>
-      <c r="F26" s="12" t="n">
-        <f aca="false">COUNT(C7:C19)-1</f>
-        <v>12</v>
-      </c>
-      <c r="H26" s="20" t="n">
-        <f aca="false">I22/H22</f>
-        <v>40.0000000000002</v>
-      </c>
-      <c r="I26" s="21" t="n">
-        <f aca="false">C30-H26*B30</f>
-        <v>-61.0000000000011</v>
-      </c>
-      <c r="K26" s="20" t="n">
-        <f aca="false">K22/E26</f>
-        <v>15.1666666666667</v>
-      </c>
-      <c r="L26" s="21" t="n">
-        <f aca="false">L22/F26</f>
-        <v>25768.1666666669</v>
-      </c>
-      <c r="M26" s="21" t="n">
-        <f aca="false">M22/E26</f>
-        <v>606.66666666667</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="E28" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="K28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="K29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="20" t="n">
-        <f aca="false">B22/B26</f>
-        <v>6</v>
-      </c>
-      <c r="C30" s="21" t="n">
-        <f aca="false">C22/C26</f>
-        <v>179</v>
-      </c>
-      <c r="E30" s="18" t="n">
-        <f aca="false">COUNT(B7:B19)-2</f>
-        <v>11</v>
-      </c>
-      <c r="H30" s="4" t="str">
-        <f aca="false">CONCATENATE("y = ",TEXT(I26,"#.##0,00")," + ",TEXT(H26,"#.##0,00"),".x")</f>
-        <v>y = -61,00 + 40,00.x</v>
-      </c>
-      <c r="K30" s="20" t="n">
-        <f aca="false">SQRT(K26)</f>
-        <v>3.89444048184931</v>
-      </c>
-      <c r="L30" s="21" t="n">
-        <f aca="false">SQRT(L26)</f>
-        <v>160.524660618445</v>
-      </c>
-      <c r="M30" s="21" t="n">
-        <f aca="false">M26/(K30*L30)</f>
-        <v>0.970427962120069</v>
-      </c>
-      <c r="Q30" s="23" t="n">
-        <f aca="false">SQRT(Q25/K22)</f>
-        <v>2.99999999999996</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="K32" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="K33" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="24"/>
-      <c r="M33" s="21" t="n">
-        <f aca="false">M30^2</f>
-        <v>0.941730429664511</v>
-      </c>
-      <c r="Q33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="R33" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="K34" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="R34" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K35" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="L35" s="24"/>
-      <c r="M35" s="21" t="n">
-        <f aca="false">1-(1-M33)*(B26-1)/(B26-1-1)</f>
-        <v>0.936433195997648</v>
-      </c>
-      <c r="Q35" s="23" t="n">
-        <f aca="false">H26/Q30</f>
-        <v>13.3333333333336</v>
-      </c>
-      <c r="R35" s="26" t="n">
-        <f aca="false">_xlfn.T.DIST.2T(Q35,$E$30)</f>
-        <v>3.91117071946751E-008</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="E40" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="J40" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K40" s="43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="E41" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="J41" s="42"/>
-      <c r="K41" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="12" t="n">
-        <f aca="false">B26</f>
-        <v>13</v>
-      </c>
-      <c r="F43" s="11" t="n">
-        <f aca="false">B22</f>
-        <v>78</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="J43" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K43" s="44" t="n">
-        <f aca="false">$C$22</f>
-        <v>2327.00000000001</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="12" t="n">
-        <f aca="false">B22</f>
-        <v>78</v>
-      </c>
-      <c r="F44" s="14" t="n">
-        <f aca="false" t="array" ref="F44:F44">SUM((B7:B19)^2)</f>
-        <v>650</v>
-      </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="J44" s="42"/>
-      <c r="K44" s="43" t="n">
-        <f aca="false" t="array" ref="K44:K44">SUM((B$7:B$19)*(C$7:C$19))</f>
-        <v>21242.0000000001</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" s="12" t="n">
-        <f aca="false" t="array" ref="H46:I47">MINVERSE(E43:F44)</f>
-        <v>0.274725274725275</v>
-      </c>
-      <c r="I46" s="11" t="n">
-        <v>-0.032967032967033</v>
-      </c>
-      <c r="J46" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="K46" s="44" t="n">
-        <f aca="false">$C$22</f>
-        <v>2327.00000000001</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="12" t="n">
-        <v>-0.032967032967033</v>
-      </c>
-      <c r="I47" s="14" t="n">
-        <v>0.00549450549450549</v>
-      </c>
-      <c r="J47" s="42"/>
-      <c r="K47" s="43" t="n">
-        <f aca="false" t="array" ref="K47:K47">SUM((B$7:B$19)*(C$7:C$19))</f>
-        <v>21242.0000000001</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="44" t="n">
-        <f aca="false" t="array" ref="H49:H50">MMULT(H46:I47,K46:K47)</f>
-        <v>-60.9999999999995</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43" t="n">
-        <v>40.0000000000001</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="11" t="n">
-        <f aca="false" t="array" ref="E54:F54">LINEST(C7:C19,B7:B19)</f>
-        <v>40.0000000000002</v>
-      </c>
-      <c r="F54" s="12" t="n">
-        <v>-61.0000000000011</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="G49:G50"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF1976D2"/>
@@ -5317,23 +3915,23 @@
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="27"/>
-      <c r="B4" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="46"/>
+      <c r="B4" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="43"/>
       <c r="E4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="47"/>
+      <c r="J4" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="44"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="S4" s="47"/>
+      <c r="R4" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="44"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="Y4" s="2"/>
@@ -5341,17 +3939,17 @@
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2"/>
       <c r="I5" s="27"/>
       <c r="J5" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="M5" s="2"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="U5" s="2"/>
       <c r="Y5" s="2"/>
@@ -5368,50 +3966,50 @@
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="27"/>
       <c r="B7" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2"/>
       <c r="I7" s="27"/>
       <c r="J7" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="M7" s="2"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="U7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="27"/>
-      <c r="B8" s="48" t="s">
-        <v>108</v>
+      <c r="B8" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>5</v>
       </c>
       <c r="E8" s="2"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="48" t="s">
-        <v>108</v>
+      <c r="J8" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="K8" s="12" t="n">
         <v>5</v>
       </c>
       <c r="M8" s="2"/>
       <c r="Q8" s="27"/>
-      <c r="R8" s="48" t="s">
-        <v>108</v>
+      <c r="R8" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="S8" s="12" t="n">
         <v>5</v>
@@ -5421,7 +4019,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="27"/>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="45" t="s">
         <v>93</v>
       </c>
       <c r="C9" s="12" t="n">
@@ -5429,7 +4027,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="45" t="s">
         <v>93</v>
       </c>
       <c r="K9" s="12" t="n">
@@ -5437,7 +4035,7 @@
       </c>
       <c r="M9" s="2"/>
       <c r="Q9" s="27"/>
-      <c r="R9" s="48" t="s">
+      <c r="R9" s="45" t="s">
         <v>93</v>
       </c>
       <c r="S9" s="12" t="n">
@@ -5452,16 +4050,16 @@
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="48" t="s">
-        <v>122</v>
+      <c r="J10" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="K10" s="12" t="n">
         <v>3</v>
       </c>
       <c r="M10" s="2"/>
       <c r="Q10" s="27"/>
-      <c r="R10" s="48" t="s">
-        <v>122</v>
+      <c r="R10" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="S10" s="12" t="n">
         <v>3</v>
@@ -5479,8 +4077,8 @@
       <c r="K11" s="2"/>
       <c r="M11" s="2"/>
       <c r="Q11" s="27"/>
-      <c r="R11" s="48" t="s">
-        <v>123</v>
+      <c r="R11" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="S11" s="12" t="n">
         <v>2</v>
@@ -5562,13 +4160,13 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="35" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G14" s="21" t="n">
         <f aca="false">SUM(B14:B26)</f>
         <v>78</v>
       </c>
-      <c r="H14" s="49"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="27"/>
       <c r="J14" s="13" t="n">
         <v>0</v>
@@ -5579,13 +4177,13 @@
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="35" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="O14" s="21" t="n">
         <f aca="false">SUM(J14:J26)</f>
         <v>78</v>
       </c>
-      <c r="P14" s="49"/>
+      <c r="P14" s="46"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="13" t="n">
         <v>0</v>
@@ -5596,13 +4194,13 @@
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="35" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="W14" s="21" t="n">
         <f aca="false">SUM(R14:R26)</f>
         <v>78</v>
       </c>
-      <c r="X14" s="49"/>
+      <c r="X14" s="46"/>
       <c r="Y14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5617,13 +4215,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="35" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G15" s="21" t="n">
         <f aca="false">SUM(C14:C26)</f>
         <v>377</v>
       </c>
-      <c r="H15" s="49"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="27"/>
       <c r="J15" s="13" t="n">
         <f aca="false">J14+1</f>
@@ -5635,13 +4233,13 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="35" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="O15" s="21" t="n">
         <f aca="false">SUM(K14:K26)</f>
         <v>2327</v>
       </c>
-      <c r="P15" s="49"/>
+      <c r="P15" s="46"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="13" t="n">
         <f aca="false">R14+1</f>
@@ -5653,13 +4251,13 @@
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="35" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="W15" s="21" t="n">
         <f aca="false">SUM(S14:S26)</f>
         <v>14495</v>
       </c>
-      <c r="X15" s="49"/>
+      <c r="X15" s="46"/>
       <c r="Y15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5674,13 +4272,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="35" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G16" s="21" t="n">
         <f aca="false">COUNT(B14:B26)</f>
         <v>13</v>
       </c>
-      <c r="H16" s="49"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="27"/>
       <c r="J16" s="13" t="n">
         <f aca="false">J15+1</f>
@@ -5692,13 +4290,13 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="35" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="O16" s="21" t="n">
         <f aca="false">COUNT(J14:J26)</f>
         <v>13</v>
       </c>
-      <c r="P16" s="49"/>
+      <c r="P16" s="46"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="13" t="n">
         <f aca="false">R15+1</f>
@@ -5710,13 +4308,13 @@
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="35" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="W16" s="21" t="n">
         <f aca="false">COUNT(R14:R26)</f>
         <v>13</v>
       </c>
-      <c r="X16" s="49"/>
+      <c r="X16" s="46"/>
       <c r="Y16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5731,13 +4329,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="35" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G17" s="21" t="n">
         <f aca="false">COUNT(C14:C26)</f>
         <v>13</v>
       </c>
-      <c r="H17" s="49"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="27"/>
       <c r="J17" s="13" t="n">
         <f aca="false">J16+1</f>
@@ -5749,13 +4347,13 @@
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="35" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="O17" s="21" t="n">
         <f aca="false">COUNT(K14:K26)</f>
         <v>13</v>
       </c>
-      <c r="P17" s="49"/>
+      <c r="P17" s="46"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="13" t="n">
         <f aca="false">R16+1</f>
@@ -5767,13 +4365,13 @@
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="35" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="W17" s="21" t="n">
         <f aca="false">COUNT(S14:S26)</f>
         <v>13</v>
       </c>
-      <c r="X17" s="49"/>
+      <c r="X17" s="46"/>
       <c r="Y17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5788,7 +4386,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="35" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G18" s="21" t="n">
         <f aca="false">AVERAGE(B14:B26)</f>
@@ -5809,7 +4407,7 @@
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="35" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="O18" s="21" t="n">
         <f aca="false">AVERAGE(J14:J26)</f>
@@ -5830,7 +4428,7 @@
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="35" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="W18" s="21" t="n">
         <f aca="false">AVERAGE(R14:R26)</f>
@@ -5854,7 +4452,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="35" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G19" s="21" t="n">
         <f aca="false">AVERAGE(C14:C26)</f>
@@ -5875,7 +4473,7 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="35" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="O19" s="21" t="n">
         <f aca="false">AVERAGE(K14:K26)</f>
@@ -5896,7 +4494,7 @@
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="35" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="W19" s="21" t="n">
         <f aca="false">AVERAGE(S14:S26)</f>
@@ -5920,7 +4518,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="35" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(B14:B26)</f>
@@ -5941,7 +4539,7 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="35" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="O20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(J14:J26)</f>
@@ -5962,7 +4560,7 @@
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="35" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="W20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(R14:R26)</f>
@@ -5986,7 +4584,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="35" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(C14:C26)</f>
@@ -6007,7 +4605,7 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="35" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(K14:K26)</f>
@@ -6028,7 +4626,7 @@
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="35" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="W21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(S14:S26)</f>
@@ -6052,7 +4650,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="35" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(B14:B26)</f>
@@ -6073,7 +4671,7 @@
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="35" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(J14:J26)</f>
@@ -6094,7 +4692,7 @@
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="35" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="W22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(R14:R26)</f>
@@ -6118,7 +4716,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="35" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(C14:C26)</f>
@@ -6139,7 +4737,7 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="35" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="O23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(K14:K26)</f>
@@ -6160,7 +4758,7 @@
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="35" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="W23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(S14:S26)</f>
@@ -6361,7 +4959,7 @@
       <c r="C27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="35" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G27" s="21" t="n">
         <f aca="false">SLOPE(B14:B26,C14:C26)</f>
@@ -6376,7 +4974,7 @@
       <c r="K27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="35" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="O27" s="21" t="n">
         <f aca="false">SLOPE(J14:J26,K14:K26)</f>
@@ -6391,7 +4989,7 @@
       <c r="S27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="35" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="W27" s="21" t="n">
         <f aca="false">SLOPE(R14:R26,S14:S26)</f>

--- a/python/math/polynomial/50-examples-properties.xlsx
+++ b/python/math/polynomial/50-examples-properties.xlsx
@@ -9,8 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="least²" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="example" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="compare" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="manual" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="built-in" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="prop" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="alternate" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="compare" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="178">
   <si>
     <t xml:space="preserve">Least Square</t>
   </si>
@@ -285,36 +288,258 @@
     <t xml:space="preserve">Not necessarry for simple LQ</t>
   </si>
   <si>
+    <t xml:space="preserve">Fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistic Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xᵢ observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yᵢ observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ŷᵢ predicted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∑x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SUM(B7:B19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∑y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SUM(C7:C19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=COUNT(B7:B19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G9-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df = n-k-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G9-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=AVERAGE(B7:B19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=AVERAGE(C7:C19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{=SUMSQ(B7:B19-$G$12)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{=SUMSQ(C7:C19-$G$13)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SUMPRODUCT((B7:B19-$G$12),(C7:C19-$G$13))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">β̅₁ = m (slope)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G16/G14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">β̅₀ = b (intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G13-G17*G12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sₓ²=∑(xᵢ-x̄)²/(n-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G14/G10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sy²=∑(yᵢ-ȳ)²/(n-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G15/G10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cov=∑(xᵢ-x̄)(yᵢ-ȳ)/(n-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G16/G10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SQRT(G19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sy (std dev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SQRT(G20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r (pearson)=cov/sₓsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G21/(G22*G23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G24^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=1-(1-G25)*G10/G11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSE = ∑ϵᵢ²</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{=SUMSQ(C7:C19-D7:D19)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE = SSE/df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G27/G11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE(β₁) = std err slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SQRT(G28/G14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t-value = β̅₁/SE(β₁)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G17/G29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=T.DIST.2T(G30;G11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SLOPE(C7:C19;B7:B19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=INTERCEPT(C7:C19;B7:B19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=VAR.S(B7:B19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sy² (variance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=VAR.S(C7:C19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=COVARIANCE.S(B7:B19;C7:C19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=STDEV.S(B7:B19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=STDEV.S(C7:C19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=PEARSON(B7:B19;C7:C19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R² coeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=RSQ(C7:C19;B7:B19)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statistic Properties of Sample</t>
   </si>
   <si>
     <t xml:space="preserve">Series</t>
   </si>
   <si>
+    <t xml:space="preserve">x data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prop: x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prop: y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std-dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prop: x, y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pearson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Linest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The easy way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intercept (b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. R² coeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tabular Calculation in Details</t>
   </si>
   <si>
     <t xml:space="preserve">Coefficient of Determination</t>
   </si>
   <si>
-    <t xml:space="preserve">x data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prop: x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prop: y</t>
-  </si>
-  <si>
     <t xml:space="preserve">(xᵢ-x̄).(yᵢ-ȳ)</t>
   </si>
   <si>
@@ -327,33 +552,6 @@
     <t xml:space="preserve">ϵ²</t>
   </si>
   <si>
-    <t xml:space="preserve">sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">std-dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prop: x, y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pearson</t>
-  </si>
-  <si>
     <t xml:space="preserve">∑(xᵢ-x̄).(yᵢ-ȳ)</t>
   </si>
   <si>
@@ -363,45 +561,15 @@
     <t xml:space="preserve">SSR = ∑ϵ²</t>
   </si>
   <si>
-    <t xml:space="preserve">Using Linest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The easy way</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slope (m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intercept (b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R² coeff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Standard Error of Estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">adj. R² coeff</t>
-  </si>
-  <si>
     <t xml:space="preserve">MSE (s²)</t>
   </si>
   <si>
     <t xml:space="preserve">Mean Squared Error</t>
   </si>
   <si>
-    <t xml:space="preserve">MSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Linear Equation</t>
   </si>
   <si>
@@ -421,9 +589,6 @@
   </si>
   <si>
     <t xml:space="preserve">coeff.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
@@ -472,13 +637,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="00\."/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="170" formatCode="00\."/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -558,7 +724,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2DFDB"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFBBDEFB"/>
       </patternFill>
     </fill>
     <fill>
@@ -658,7 +824,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -767,6 +933,78 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -775,8 +1013,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -797,14 +1039,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -839,7 +1073,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -872,16 +1106,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF009688"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2DFDB"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF64B5F6"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFF9C4"/>
       <rgbColor rgb="FFE0F2F1"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF1976D2"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFBBDEFB"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -894,12 +1128,12 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFF176"/>
-      <rgbColor rgb="FFB2DFDB"/>
+      <rgbColor rgb="FF90CAF9"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF64B5F6"/>
+      <rgbColor rgb="FF1E88E5"/>
+      <rgbColor rgb="FF42A5F5"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -1028,13 +1262,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FF64B5F6"/>
+    <tabColor rgb="FFBBDEFB"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R35" activeCellId="0" sqref="R35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2302,7 +2536,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="str">
         <f aca="false">CONCATENATE("y = ",TEXT(I26,"#.##0,00")," + ",TEXT(H26,"#.##0,00"),".x")</f>
-        <v>y = -61,00 + 40,00.x</v>
+        <v>y = -61.00000 + 40.00000.x</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
@@ -2513,1336 +2747,704 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FF1976D2"/>
+    <tabColor rgb="FF90CAF9"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="2" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="2" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="40.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="2.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27"/>
-    </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27"/>
-      <c r="B4" s="29" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="30" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="P4" s="30" t="s">
+      <c r="C6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27"/>
-      <c r="B5" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="G6" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>4.99999999999795</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G7" s="35" t="n">
+        <f aca="false">SUM(B7:B19)</f>
+        <v>78</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>11.9999999999987</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="7" t="s">
+      <c r="G8" s="35" t="n">
+        <f aca="false">SUM(C7:C19)</f>
+        <v>2327.00000000001</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>24.9999999999993</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="35" t="n">
+        <f aca="false">COUNT(B7:B19)</f>
+        <v>13</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>43.9999999999998</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="35" t="n">
+        <f aca="false">G9-1</f>
+        <v>12</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>69.0000000000003</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="35" t="n">
+        <f aca="false">G9-2</f>
+        <v>11</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="n">
+        <v>100.000000000001</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="38" t="n">
+        <f aca="false">AVERAGE(B7:B19)</f>
+        <v>6</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="n">
+        <v>137.000000000001</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="38" t="n">
+        <f aca="false">AVERAGE(C7:C19)</f>
+        <v>179</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <v>180.000000000001</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="38" t="n">
+        <f aca="false" t="array" ref="G14:G14">SUMSQ(B7:B19-$G$12)</f>
+        <v>182</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>229.000000000001</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="38" t="n">
+        <f aca="false" t="array" ref="G15:G15">SUMSQ(C7:C19-$G$13)</f>
+        <v>309218.000000003</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="C16" s="12" t="n">
+        <v>284.000000000002</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="38" t="n">
+        <f aca="false">SUMPRODUCT((B7:B19-$G$12),(C7:C19-$G$13))</f>
+        <v>7280.00000000005</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="L5" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="32" t="s">
+      <c r="C17" s="12" t="n">
+        <v>345.000000000001</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="38" t="n">
+        <f aca="false">G16/G14</f>
+        <v>40.0000000000002</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27"/>
-      <c r="B6" s="13" t="n">
+      <c r="C18" s="12" t="n">
+        <v>412.000000000001</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B18</f>
         <v>0</v>
       </c>
-      <c r="C6" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="21" t="n">
-        <f aca="false">SUM(B6:B18)</f>
-        <v>78</v>
-      </c>
-      <c r="H6" s="21" t="n">
-        <f aca="false">SUM(C6:C18)</f>
-        <v>2327</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="37" t="n">
-        <f aca="false">B6-$G$8</f>
-        <v>-6</v>
-      </c>
-      <c r="K6" s="38" t="n">
-        <f aca="false">C6-$H$8</f>
-        <v>-174</v>
-      </c>
-      <c r="L6" s="38" t="n">
-        <f aca="false">J6*K6</f>
-        <v>1044</v>
-      </c>
-      <c r="M6" s="38" t="n">
-        <f aca="false">J6^2</f>
-        <v>36</v>
-      </c>
-      <c r="N6" s="39" t="n">
-        <f aca="false">K6^2</f>
-        <v>30276</v>
-      </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="37" t="n">
-        <f aca="false">$O$24*B6+$O$25</f>
-        <v>-61</v>
-      </c>
-      <c r="Q6" s="39" t="n">
-        <f aca="false">C6-P6</f>
-        <v>66</v>
-      </c>
-      <c r="R6" s="39" t="n">
-        <f aca="false">Q6^2</f>
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27"/>
-      <c r="B7" s="13" t="n">
-        <f aca="false">B6+1</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="12" t="n">
+      <c r="E18" s="4"/>
+      <c r="F18" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="38" t="n">
+        <f aca="false">G13-G17*G12</f>
+        <v>-61.0000000000011</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="21" t="n">
-        <f aca="false">COUNT(B6:B18)</f>
-        <v>13</v>
-      </c>
-      <c r="H7" s="21" t="n">
-        <f aca="false">COUNT(C6:C18)</f>
-        <v>13</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="37" t="n">
-        <f aca="false">B7-$G$8</f>
-        <v>-5</v>
-      </c>
-      <c r="K7" s="38" t="n">
-        <f aca="false">C7-$H$8</f>
-        <v>-167</v>
-      </c>
-      <c r="L7" s="38" t="n">
-        <f aca="false">J7*K7</f>
-        <v>835</v>
-      </c>
-      <c r="M7" s="38" t="n">
-        <f aca="false">J7^2</f>
-        <v>25</v>
-      </c>
-      <c r="N7" s="39" t="n">
-        <f aca="false">K7^2</f>
-        <v>27889</v>
-      </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="37" t="n">
-        <f aca="false">$O$24*B7+$O$25</f>
-        <v>-21</v>
-      </c>
-      <c r="Q7" s="39" t="n">
-        <f aca="false">C7-P7</f>
-        <v>33</v>
-      </c>
-      <c r="R7" s="39" t="n">
-        <f aca="false">Q7^2</f>
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27"/>
-      <c r="B8" s="13" t="n">
-        <f aca="false">B7+1</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="n">
-        <v>25</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="21" t="n">
-        <f aca="false">AVERAGE(B6:B18)</f>
-        <v>6</v>
-      </c>
-      <c r="H8" s="21" t="n">
-        <f aca="false">AVERAGE(C6:C18)</f>
-        <v>179</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="37" t="n">
-        <f aca="false">B8-$G$8</f>
-        <v>-4</v>
-      </c>
-      <c r="K8" s="38" t="n">
-        <f aca="false">C8-$H$8</f>
-        <v>-154</v>
-      </c>
-      <c r="L8" s="38" t="n">
-        <f aca="false">J8*K8</f>
-        <v>616</v>
-      </c>
-      <c r="M8" s="38" t="n">
-        <f aca="false">J8^2</f>
-        <v>16</v>
-      </c>
-      <c r="N8" s="39" t="n">
-        <f aca="false">K8^2</f>
-        <v>23716</v>
-      </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="37" t="n">
-        <f aca="false">$O$24*B8+$O$25</f>
-        <v>19</v>
-      </c>
-      <c r="Q8" s="39" t="n">
-        <f aca="false">C8-P8</f>
-        <v>6</v>
-      </c>
-      <c r="R8" s="39" t="n">
-        <f aca="false">Q8^2</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27"/>
-      <c r="B9" s="13" t="n">
-        <f aca="false">B8+1</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="12" t="n">
-        <v>44</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="21" t="n">
-        <f aca="false">SUM(B6:B18)/COUNT(B6:B18)</f>
-        <v>6</v>
-      </c>
-      <c r="H9" s="21" t="n">
-        <f aca="false">SUM(C6:C18)/COUNT(C6:C18)</f>
-        <v>179</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="37" t="n">
-        <f aca="false">B9-$G$8</f>
-        <v>-3</v>
-      </c>
-      <c r="K9" s="38" t="n">
-        <f aca="false">C9-$H$8</f>
-        <v>-135</v>
-      </c>
-      <c r="L9" s="38" t="n">
-        <f aca="false">J9*K9</f>
-        <v>405</v>
-      </c>
-      <c r="M9" s="38" t="n">
-        <f aca="false">J9^2</f>
-        <v>9</v>
-      </c>
-      <c r="N9" s="39" t="n">
-        <f aca="false">K9^2</f>
-        <v>18225</v>
-      </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="37" t="n">
-        <f aca="false">$O$24*B9+$O$25</f>
+      <c r="C19" s="12" t="n">
+        <v>485.000000000001</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <f aca="false">$H$18+$H$17*B19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="38" t="n">
+        <f aca="false">G14/G10</f>
+        <v>15.1666666666667</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="38" t="n">
+        <f aca="false">G15/G10</f>
+        <v>25768.1666666669</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="38" t="n">
+        <f aca="false">G16/G10</f>
+        <v>606.66666666667</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="38" t="n">
+        <f aca="false">SQRT(G19)</f>
+        <v>3.89444048184931</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="38" t="n">
+        <f aca="false">SQRT(G20)</f>
+        <v>160.524660618445</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="38" t="n">
+        <f aca="false">G21/(G22*G23)</f>
+        <v>0.970427962120069</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="41" t="n">
+        <f aca="false">G24^2</f>
+        <v>0.941730429664511</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="39" t="n">
-        <f aca="false">C9-P9</f>
-        <v>-15</v>
-      </c>
-      <c r="R9" s="39" t="n">
-        <f aca="false">Q9^2</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27"/>
-      <c r="B10" s="13" t="n">
-        <f aca="false">B9+1</f>
-        <v>4</v>
-      </c>
-      <c r="C10" s="12" t="n">
-        <v>69</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="21" t="n">
-        <f aca="false">_xlfn.VAR.S(B6:B18)</f>
-        <v>15.1666666666667</v>
-      </c>
-      <c r="H10" s="21" t="n">
-        <f aca="false">_xlfn.VAR.S(C6:C18)</f>
-        <v>25768.1666666667</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="37" t="n">
-        <f aca="false">B10-$G$8</f>
-        <v>-2</v>
-      </c>
-      <c r="K10" s="38" t="n">
-        <f aca="false">C10-$H$8</f>
-        <v>-110</v>
-      </c>
-      <c r="L10" s="38" t="n">
-        <f aca="false">J10*K10</f>
-        <v>220</v>
-      </c>
-      <c r="M10" s="38" t="n">
-        <f aca="false">J10^2</f>
-        <v>4</v>
-      </c>
-      <c r="N10" s="39" t="n">
-        <f aca="false">K10^2</f>
-        <v>12100</v>
-      </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="37" t="n">
-        <f aca="false">$O$24*B10+$O$25</f>
+      <c r="G26" s="41" t="n">
+        <f aca="false">1-(1-G25)*G10/G11</f>
+        <v>0.936433195997648</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Q10" s="39" t="n">
-        <f aca="false">C10-P10</f>
-        <v>-30</v>
-      </c>
-      <c r="R10" s="39" t="n">
-        <f aca="false">Q10^2</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27"/>
-      <c r="B11" s="13" t="n">
-        <f aca="false">B10+1</f>
-        <v>5</v>
-      </c>
-      <c r="C11" s="12" t="n">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="21" t="n">
-        <f aca="false" t="array" ref="G11:G11">SUM((B6:B18 - G9)^2)/(COUNT(B6:B18)-1)</f>
-        <v>15.1666666666667</v>
-      </c>
-      <c r="H11" s="21" t="n">
-        <f aca="false" t="array" ref="H11:H11">SUM((C6:C18 - H9)^2)/(COUNT(C6:C18)-1)</f>
-        <v>25768.1666666667</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="37" t="n">
-        <f aca="false">B11-$G$8</f>
-        <v>-1</v>
-      </c>
-      <c r="K11" s="38" t="n">
-        <f aca="false">C11-$H$8</f>
-        <v>-79</v>
-      </c>
-      <c r="L11" s="38" t="n">
-        <f aca="false">J11*K11</f>
-        <v>79</v>
-      </c>
-      <c r="M11" s="38" t="n">
-        <f aca="false">J11^2</f>
-        <v>1</v>
-      </c>
-      <c r="N11" s="39" t="n">
-        <f aca="false">K11^2</f>
-        <v>6241</v>
-      </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="37" t="n">
-        <f aca="false">$O$24*B11+$O$25</f>
-        <v>139</v>
-      </c>
-      <c r="Q11" s="39" t="n">
-        <f aca="false">C11-P11</f>
-        <v>-39</v>
-      </c>
-      <c r="R11" s="39" t="n">
-        <f aca="false">Q11^2</f>
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27"/>
-      <c r="B12" s="13" t="n">
-        <f aca="false">B11+1</f>
-        <v>6</v>
-      </c>
-      <c r="C12" s="12" t="n">
-        <v>137</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="21" t="n">
-        <f aca="false">_xlfn.STDEV.S(B6:B18)</f>
-        <v>3.89444048184931</v>
-      </c>
-      <c r="H12" s="21" t="n">
-        <f aca="false">_xlfn.STDEV.S(C6:C18)</f>
-        <v>160.524660618444</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="37" t="n">
-        <f aca="false">B12-$G$8</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="38" t="n">
-        <f aca="false">C12-$H$8</f>
-        <v>-42</v>
-      </c>
-      <c r="L12" s="38" t="n">
-        <f aca="false">J12*K12</f>
-        <v>-0</v>
-      </c>
-      <c r="M12" s="38" t="n">
-        <f aca="false">J12^2</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="39" t="n">
-        <f aca="false">K12^2</f>
-        <v>1764</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="37" t="n">
-        <f aca="false">$O$24*B12+$O$25</f>
-        <v>179</v>
-      </c>
-      <c r="Q12" s="39" t="n">
-        <f aca="false">C12-P12</f>
-        <v>-42</v>
-      </c>
-      <c r="R12" s="39" t="n">
-        <f aca="false">Q12^2</f>
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27"/>
-      <c r="B13" s="13" t="n">
-        <f aca="false">B12+1</f>
-        <v>7</v>
-      </c>
-      <c r="C13" s="12" t="n">
-        <v>180</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="21" t="n">
-        <f aca="false">SQRT(G11)</f>
-        <v>3.89444048184931</v>
-      </c>
-      <c r="H13" s="21" t="n">
-        <f aca="false">SQRT(H11)</f>
-        <v>160.524660618444</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="37" t="n">
-        <f aca="false">B13-$G$8</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="38" t="n">
-        <f aca="false">C13-$H$8</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="38" t="n">
-        <f aca="false">J13*K13</f>
-        <v>1</v>
-      </c>
-      <c r="M13" s="38" t="n">
-        <f aca="false">J13^2</f>
-        <v>1</v>
-      </c>
-      <c r="N13" s="39" t="n">
-        <f aca="false">K13^2</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="37" t="n">
-        <f aca="false">$O$24*B13+$O$25</f>
-        <v>219</v>
-      </c>
-      <c r="Q13" s="39" t="n">
-        <f aca="false">C13-P13</f>
-        <v>-39</v>
-      </c>
-      <c r="R13" s="39" t="n">
-        <f aca="false">Q13^2</f>
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
-      <c r="B14" s="13" t="n">
-        <f aca="false">B13+1</f>
-        <v>8</v>
-      </c>
-      <c r="C14" s="12" t="n">
-        <v>229</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="21" t="n">
-        <f aca="false">G12/SQRT(G7)</f>
-        <v>1.08012344973464</v>
-      </c>
-      <c r="H14" s="21" t="n">
-        <f aca="false">H12/SQRT(H7)</f>
-        <v>44.5215303720196</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="37" t="n">
-        <f aca="false">B14-$G$8</f>
-        <v>2</v>
-      </c>
-      <c r="K14" s="38" t="n">
-        <f aca="false">C14-$H$8</f>
-        <v>50</v>
-      </c>
-      <c r="L14" s="38" t="n">
-        <f aca="false">J14*K14</f>
-        <v>100</v>
-      </c>
-      <c r="M14" s="38" t="n">
-        <f aca="false">J14^2</f>
-        <v>4</v>
-      </c>
-      <c r="N14" s="39" t="n">
-        <f aca="false">K14^2</f>
-        <v>2500</v>
-      </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="37" t="n">
-        <f aca="false">$O$24*B14+$O$25</f>
-        <v>259</v>
-      </c>
-      <c r="Q14" s="39" t="n">
-        <f aca="false">C14-P14</f>
-        <v>-30</v>
-      </c>
-      <c r="R14" s="39" t="n">
-        <f aca="false">Q14^2</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27"/>
-      <c r="B15" s="13" t="n">
-        <f aca="false">B14+1</f>
-        <v>9</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>284</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="37" t="n">
-        <f aca="false">B15-$G$8</f>
-        <v>3</v>
-      </c>
-      <c r="K15" s="38" t="n">
-        <f aca="false">C15-$H$8</f>
+      <c r="G27" s="38" t="n">
+        <f aca="false" t="array" ref="G27:G27">SUMSQ(C7:C19-D7:D19)</f>
+        <v>725751.000000005</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="38" t="n">
+        <f aca="false">G27/G11</f>
+        <v>65977.3636363641</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="38" t="n">
+        <f aca="false">SQRT(G28/G14)</f>
+        <v>19.039773817275</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="L15" s="38" t="n">
-        <f aca="false">J15*K15</f>
-        <v>315</v>
-      </c>
-      <c r="M15" s="38" t="n">
-        <f aca="false">J15^2</f>
-        <v>9</v>
-      </c>
-      <c r="N15" s="39" t="n">
-        <f aca="false">K15^2</f>
-        <v>11025</v>
-      </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="37" t="n">
-        <f aca="false">$O$24*B15+$O$25</f>
-        <v>299</v>
-      </c>
-      <c r="Q15" s="39" t="n">
-        <f aca="false">C15-P15</f>
-        <v>-15</v>
-      </c>
-      <c r="R15" s="39" t="n">
-        <f aca="false">Q15^2</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="13" t="n">
-        <f aca="false">B15+1</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>345</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="37" t="n">
-        <f aca="false">B16-$G$8</f>
-        <v>4</v>
-      </c>
-      <c r="K16" s="38" t="n">
-        <f aca="false">C16-$H$8</f>
-        <v>166</v>
-      </c>
-      <c r="L16" s="38" t="n">
-        <f aca="false">J16*K16</f>
-        <v>664</v>
-      </c>
-      <c r="M16" s="38" t="n">
-        <f aca="false">J16^2</f>
-        <v>16</v>
-      </c>
-      <c r="N16" s="39" t="n">
-        <f aca="false">K16^2</f>
-        <v>27556</v>
-      </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="37" t="n">
-        <f aca="false">$O$24*B16+$O$25</f>
-        <v>339</v>
-      </c>
-      <c r="Q16" s="39" t="n">
-        <f aca="false">C16-P16</f>
-        <v>6</v>
-      </c>
-      <c r="R16" s="39" t="n">
-        <f aca="false">Q16^2</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27"/>
-      <c r="B17" s="13" t="n">
-        <f aca="false">B16+1</f>
-        <v>11</v>
-      </c>
-      <c r="C17" s="12" t="n">
-        <v>412</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="21" t="n">
-        <f aca="false">_xlfn.COVARIANCE.S(B6:B18,C6:C18)</f>
-        <v>606.666666666667</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="37" t="n">
-        <f aca="false">B17-$G$8</f>
-        <v>5</v>
-      </c>
-      <c r="K17" s="38" t="n">
-        <f aca="false">C17-$H$8</f>
-        <v>233</v>
-      </c>
-      <c r="L17" s="38" t="n">
-        <f aca="false">J17*K17</f>
-        <v>1165</v>
-      </c>
-      <c r="M17" s="38" t="n">
-        <f aca="false">J17^2</f>
-        <v>25</v>
-      </c>
-      <c r="N17" s="39" t="n">
-        <f aca="false">K17^2</f>
-        <v>54289</v>
-      </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="37" t="n">
-        <f aca="false">$O$24*B17+$O$25</f>
-        <v>379</v>
-      </c>
-      <c r="Q17" s="39" t="n">
-        <f aca="false">C17-P17</f>
-        <v>33</v>
-      </c>
-      <c r="R17" s="39" t="n">
-        <f aca="false">Q17^2</f>
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
-      <c r="B18" s="13" t="n">
-        <f aca="false">B17+1</f>
-        <v>12</v>
-      </c>
-      <c r="C18" s="12" t="n">
-        <v>485</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="21" t="n">
-        <f aca="false" t="array" ref="G18:G18">SUM((B6:B18-G9)*(C6:C18-H9))/(COUNT(B6:B18)-1)</f>
-        <v>606.666666666667</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="37" t="n">
-        <f aca="false">B18-$G$8</f>
-        <v>6</v>
-      </c>
-      <c r="K18" s="38" t="n">
-        <f aca="false">C18-$H$8</f>
-        <v>306</v>
-      </c>
-      <c r="L18" s="38" t="n">
-        <f aca="false">J18*K18</f>
-        <v>1836</v>
-      </c>
-      <c r="M18" s="38" t="n">
-        <f aca="false">J18^2</f>
-        <v>36</v>
-      </c>
-      <c r="N18" s="39" t="n">
-        <f aca="false">K18^2</f>
-        <v>93636</v>
-      </c>
-      <c r="O18" s="18"/>
-      <c r="P18" s="37" t="n">
-        <f aca="false">$O$24*B18+$O$25</f>
-        <v>419</v>
-      </c>
-      <c r="Q18" s="39" t="n">
-        <f aca="false">C18-P18</f>
-        <v>66</v>
-      </c>
-      <c r="R18" s="39" t="n">
-        <f aca="false">Q18^2</f>
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27"/>
-      <c r="E19" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="21" t="n">
-        <f aca="false">PEARSON(B6:B18,C6:C18)</f>
-        <v>0.970427962120068</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27"/>
-      <c r="B20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="21" t="n">
-        <f aca="false">G18/(G13*H13)</f>
-        <v>0.970427962120068</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="37" t="n">
-        <f aca="false">SUM(J6:J18)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="38" t="n">
-        <f aca="false">SUM(K6:K18)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="38" t="n">
-        <f aca="false">SUM(L6:L18)</f>
-        <v>7280</v>
-      </c>
-      <c r="M20" s="38" t="n">
-        <f aca="false">SUM(M6:M18)</f>
-        <v>182</v>
-      </c>
-      <c r="N20" s="39" t="n">
-        <f aca="false">SUM(N6:N18)</f>
-        <v>309218</v>
-      </c>
-      <c r="O20" s="39"/>
-      <c r="R20" s="39" t="n">
-        <f aca="false">SUM(R6:R18)</f>
-        <v>18018</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27"/>
-      <c r="B21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="21" t="n">
-        <f aca="false" t="array" ref="G21:G21">SUM((B6:B18 - G9)*(C6:C18 - H9))/SQRT(SUM((B6:B18 - G9)^2)*SUM((C6:C18 - H9)^2))</f>
-        <v>0.970427962120068</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="21" t="n">
-        <f aca="false">M20/(G7-1)</f>
-        <v>15.1666666666667</v>
-      </c>
-      <c r="N21" s="41" t="n">
-        <f aca="false">N20/(H7-1)</f>
-        <v>25768.1666666667</v>
-      </c>
-      <c r="O21" s="21"/>
-      <c r="R21" s="21"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27"/>
-      <c r="E22" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="21" t="n">
-        <f aca="false" t="array" ref="G22:G22">SLOPE(C6:C18,B6:B18)</f>
-        <v>40</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="40" t="n">
-        <f aca="false">L20/(G7-1)</f>
-        <v>606.666666666667</v>
-      </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="21"/>
-      <c r="R22" s="21"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27"/>
-      <c r="B23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="21" t="n">
-        <f aca="false" t="array" ref="G23:G23">SUM((B6:B18 - G9)*(C6:C18 - H9))/SUM((B6:B18 - G9)^2)</f>
-        <v>40</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="21" t="n">
-        <f aca="false">L20/SQRT(M20*N20)</f>
-        <v>0.970427962120068</v>
-      </c>
-      <c r="R23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27"/>
-      <c r="B24" s="11" t="n">
-        <f aca="false" t="array" ref="B24:C24">LINEST(C6:C18,B6:B18)</f>
-        <v>40</v>
-      </c>
-      <c r="C24" s="12" t="n">
-        <v>-61</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="21" t="n">
-        <f aca="false" t="array" ref="G24:G24">INTERCEPT(C6:C18,B6:B18)</f>
-        <v>-61</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="36"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="21" t="n">
-        <f aca="false">L20/M20</f>
-        <v>40</v>
-      </c>
-      <c r="R24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27"/>
-      <c r="E25" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="21" t="n">
-        <f aca="false">H8-G23*G8</f>
-        <v>-61</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="36"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="21" t="n">
-        <f aca="false">H8-O24*G8</f>
-        <v>-61</v>
-      </c>
-      <c r="R25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27"/>
-      <c r="E26" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="21" t="n">
-        <f aca="false" t="array" ref="G26:G26">RSQ(C6:C18,B6:B18)</f>
-        <v>0.941730429664509</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="J26" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" s="36"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="21"/>
-      <c r="R26" s="41" t="n">
-        <f aca="false">1-R20/N20</f>
-        <v>0.941730429664509</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27"/>
-      <c r="E27" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="21" t="n">
-        <f aca="false" t="array" ref="G27:G27">1-SUM((C6:C18 - (B6:B18*G22+G24))^2)/SUM((C6:C18 - H9)^2)</f>
-        <v>0.941730429664509</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="J27" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="21"/>
-      <c r="R27" s="41" t="n">
-        <f aca="false">SQRT(R20/(G7-1))</f>
-        <v>38.7491935399951</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27"/>
-      <c r="E28" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="21" t="n">
-        <f aca="false">1-(1-G26)*(G7-1)/(G7-1-1)</f>
-        <v>0.936433195997646</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="J28" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="21"/>
-      <c r="R28" s="41" t="n">
-        <f aca="false">R20/(G7-2)</f>
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27"/>
-      <c r="E29" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="21" t="n">
-        <f aca="false" t="array" ref="G29:G29">SQRT(SUM((C6:C18 - (B6:B18*G22+G24))^2)/(G7-1))</f>
-        <v>38.7491935399951</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27"/>
-      <c r="E30" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="21" t="n">
-        <f aca="false" t="array" ref="G30:G30">SUM((C6:C18 - (B6:B18*G22+G24))^2)/(G7-2)</f>
-        <v>1638</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="38" t="n">
+        <f aca="false">G17/G29</f>
+        <v>2.10086529303767</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="42" t="n">
+        <f aca="false">_xlfn.T.DIST.2T(G30,G11)</f>
+        <v>0.0595110960710284</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3855,6 +3457,2429 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF64B5F6"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="40.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="2.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>4.99999999999795</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B7</f>
+        <v>-61.0000000000011</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="35" t="n">
+        <f aca="false">SUM(B7:B19)</f>
+        <v>78</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>11.9999999999987</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B8</f>
+        <v>-21.0000000000008</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="35" t="n">
+        <f aca="false">SUM(C7:C19)</f>
+        <v>2327.00000000001</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>24.9999999999993</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B9</f>
+        <v>18.9999999999994</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="35" t="n">
+        <f aca="false">COUNT(B7:B19)</f>
+        <v>13</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>43.9999999999998</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B10</f>
+        <v>58.9999999999997</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="35" t="n">
+        <f aca="false">G9-1</f>
+        <v>12</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>69.0000000000003</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B11</f>
+        <v>98.9999999999999</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="35" t="n">
+        <f aca="false">G9-1-1</f>
+        <v>11</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="n">
+        <v>100.000000000001</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B12</f>
+        <v>139</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="38" t="n">
+        <f aca="false">AVERAGE(B7:B19)</f>
+        <v>6</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="n">
+        <v>137.000000000001</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B13</f>
+        <v>179</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="38" t="n">
+        <f aca="false">AVERAGE(C7:C19)</f>
+        <v>179</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <v>180.000000000001</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B14</f>
+        <v>219.000000000001</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="38" t="n">
+        <f aca="false" t="array" ref="G14:G14">SUMSQ(B7:B19-$G$12)</f>
+        <v>182</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>229.000000000001</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B15</f>
+        <v>259.000000000001</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="38" t="n">
+        <f aca="false" t="array" ref="G15:G15">SUMSQ(C7:C19-$G$13)</f>
+        <v>309218.000000003</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>284.000000000002</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B16</f>
+        <v>299.000000000001</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="38" t="n">
+        <f aca="false">SUMPRODUCT((B7:B19-$G$12),(C7:C19-$G$13))</f>
+        <v>7280.00000000005</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <v>345.000000000001</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B17</f>
+        <v>339.000000000001</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="38" t="n">
+        <f aca="false">SLOPE(C7:C19,B7:B19)</f>
+        <v>40.0000000000002</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <v>412.000000000001</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B18</f>
+        <v>379.000000000002</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="38" t="n">
+        <f aca="false">INTERCEPT(C7:C19,B7:B19)</f>
+        <v>-61.0000000000011</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12" t="n">
+        <v>485.000000000001</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <f aca="false">$G$18+$G$17*B19</f>
+        <v>419.000000000002</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="38" t="n">
+        <f aca="false">_xlfn.VAR.S(B7:B19)</f>
+        <v>15.1666666666667</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="38" t="n">
+        <f aca="false">_xlfn.VAR.S(C7:C19)</f>
+        <v>25768.1666666669</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="38" t="n">
+        <f aca="false">_xlfn.COVARIANCE.S(B7:B19,C7:C19)</f>
+        <v>606.66666666667</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="38" t="n">
+        <f aca="false">_xlfn.STDEV.S(B7:B19)</f>
+        <v>3.89444048184931</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="38" t="n">
+        <f aca="false">_xlfn.STDEV.S(C7:C19)</f>
+        <v>160.524660618445</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="38" t="n">
+        <f aca="false">PEARSON(B7:B19,C7:C19)</f>
+        <v>0.970427962120069</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="41" t="n">
+        <f aca="false">RSQ(C7:C19,B7:B19)</f>
+        <v>0.941730429664511</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="41" t="n">
+        <f aca="false">1-(1-G25)*G10/G11</f>
+        <v>0.936433195997648</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="38" t="n">
+        <f aca="false" t="array" ref="G27:G27">SUMSQ(C7:C19-D7:D19)</f>
+        <v>18017.9999999995</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="38" t="n">
+        <f aca="false">G27/G11</f>
+        <v>1637.99999999995</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="38" t="n">
+        <f aca="false">SQRT(G28/G14)</f>
+        <v>2.99999999999996</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="38" t="n">
+        <f aca="false">G17/G29</f>
+        <v>13.3333333333336</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="42" t="n">
+        <f aca="false">_xlfn.T.DIST.2T(G30,G11)</f>
+        <v>3.91117071946751E-008</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:I5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF42A5F5"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="45"/>
+    </row>
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45"/>
+      <c r="B2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
+      <c r="B4" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45"/>
+      <c r="B5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
+      <c r="B6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="21" t="n">
+        <f aca="false">SUM(B6:B18)</f>
+        <v>78</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <f aca="false">SUM(C6:C18)</f>
+        <v>2327</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45"/>
+      <c r="B7" s="13" t="n">
+        <f aca="false">B6+1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <f aca="false">COUNT(B6:B18)</f>
+        <v>13</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <f aca="false">COUNT(C6:C18)</f>
+        <v>13</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
+      <c r="B8" s="13" t="n">
+        <f aca="false">B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <f aca="false">AVERAGE(B6:B18)</f>
+        <v>6</v>
+      </c>
+      <c r="H8" s="21" t="n">
+        <f aca="false">AVERAGE(C6:C18)</f>
+        <v>179</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
+      <c r="B9" s="13" t="n">
+        <f aca="false">B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>44</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="21" t="n">
+        <f aca="false">SUM(B6:B18)/COUNT(B6:B18)</f>
+        <v>6</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <f aca="false">SUM(C6:C18)/COUNT(C6:C18)</f>
+        <v>179</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
+      <c r="B10" s="13" t="n">
+        <f aca="false">B9+1</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>69</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="21" t="n">
+        <f aca="false">_xlfn.VAR.S(B6:B18)</f>
+        <v>15.1666666666667</v>
+      </c>
+      <c r="H10" s="21" t="n">
+        <f aca="false">_xlfn.VAR.S(C6:C18)</f>
+        <v>25768.1666666667</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
+      <c r="B11" s="13" t="n">
+        <f aca="false">B10+1</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="21" t="n">
+        <f aca="false" t="array" ref="G11:G11">SUM((B6:B18 - G9)^2)/(COUNT(B6:B18)-1)</f>
+        <v>15.1666666666667</v>
+      </c>
+      <c r="H11" s="21" t="n">
+        <f aca="false" t="array" ref="H11:H11">SUM((C6:C18 - H9)^2)/(COUNT(C6:C18)-1)</f>
+        <v>25768.1666666667</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45"/>
+      <c r="B12" s="13" t="n">
+        <f aca="false">B11+1</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="n">
+        <v>137</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="21" t="n">
+        <f aca="false">_xlfn.STDEV.S(B6:B18)</f>
+        <v>3.89444048184931</v>
+      </c>
+      <c r="H12" s="21" t="n">
+        <f aca="false">_xlfn.STDEV.S(C6:C18)</f>
+        <v>160.524660618444</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="45"/>
+      <c r="B13" s="13" t="n">
+        <f aca="false">B12+1</f>
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="n">
+        <v>180</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="21" t="n">
+        <f aca="false">SQRT(G11)</f>
+        <v>3.89444048184931</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <f aca="false">SQRT(H11)</f>
+        <v>160.524660618444</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="45"/>
+      <c r="B14" s="13" t="n">
+        <f aca="false">B13+1</f>
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <v>229</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <f aca="false">G12/SQRT(G7)</f>
+        <v>1.08012344973464</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <f aca="false">H12/SQRT(H7)</f>
+        <v>44.5215303720196</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="45"/>
+      <c r="B15" s="13" t="n">
+        <f aca="false">B14+1</f>
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>284</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="45"/>
+      <c r="B16" s="13" t="n">
+        <f aca="false">B15+1</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>345</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="45"/>
+      <c r="B17" s="13" t="n">
+        <f aca="false">B16+1</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <v>412</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="21" t="n">
+        <f aca="false">_xlfn.COVARIANCE.S(B6:B18,C6:C18)</f>
+        <v>606.666666666667</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="45"/>
+      <c r="B18" s="13" t="n">
+        <f aca="false">B17+1</f>
+        <v>12</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <v>485</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="21" t="n">
+        <f aca="false" t="array" ref="G18:G18">SUM((B6:B18-G9)*(C6:C18-H9))/(COUNT(B6:B18)-1)</f>
+        <v>606.666666666667</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="45"/>
+      <c r="E19" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="21" t="n">
+        <f aca="false">PEARSON(B6:B18,C6:C18)</f>
+        <v>0.970427962120068</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="45"/>
+      <c r="B20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="21" t="n">
+        <f aca="false">G18/(G13*H13)</f>
+        <v>0.970427962120068</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="45"/>
+      <c r="B21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="21" t="n">
+        <f aca="false" t="array" ref="G21:G21">SUM((B6:B18 - G9)*(C6:C18 - H9))/SQRT(SUM((B6:B18 - G9)^2)*SUM((C6:C18 - H9)^2))</f>
+        <v>0.970427962120068</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="45"/>
+      <c r="E22" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="21" t="n">
+        <f aca="false" t="array" ref="G22:G22">SLOPE(C6:C18,B6:B18)</f>
+        <v>40</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="45"/>
+      <c r="B23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="21" t="n">
+        <f aca="false" t="array" ref="G23:G23">SUM((B6:B18 - G9)*(C6:C18 - H9))/SUM((B6:B18 - G9)^2)</f>
+        <v>40</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="45"/>
+      <c r="B24" s="11" t="n">
+        <f aca="false" t="array" ref="B24:C24">LINEST(C6:C18,B6:B18)</f>
+        <v>40</v>
+      </c>
+      <c r="C24" s="12" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="21" t="n">
+        <f aca="false" t="array" ref="G24:G24">INTERCEPT(C6:C18,B6:B18)</f>
+        <v>-61</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="45"/>
+      <c r="E25" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="21" t="n">
+        <f aca="false">H8-G23*G8</f>
+        <v>-61</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="45"/>
+      <c r="E26" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="21" t="n">
+        <f aca="false" t="array" ref="G26:G26">RSQ(C6:C18,B6:B18)</f>
+        <v>0.941730429664509</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="45"/>
+      <c r="E27" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="21" t="n">
+        <f aca="false" t="array" ref="G27:G27">1-SUM((C6:C18 - (B6:B18*G22+G24))^2)/SUM((C6:C18 - H9)^2)</f>
+        <v>0.941730429664509</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="45"/>
+      <c r="E28" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="21" t="n">
+        <f aca="false">1-(1-G26)*(G7-1)/(G7-1-1)</f>
+        <v>0.936433195997646</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="45"/>
+      <c r="E29" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="21" t="n">
+        <f aca="false" t="array" ref="G29:G29">SQRT(SUM((C6:C18 - (B6:B18*G22+G24))^2)/(G7-1))</f>
+        <v>38.7491935399951</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="45"/>
+      <c r="E30" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="21" t="n">
+        <f aca="false" t="array" ref="G30:G30">SUM((C6:C18 - (B6:B18*G22+G24))^2)/(G7-2)</f>
+        <v>1638</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="45"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF1E88E5"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O35" activeCellId="0" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="2" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="2" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="2.55"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="45"/>
+    </row>
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45"/>
+      <c r="B2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+    </row>
+    <row r="3" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
+      <c r="B4" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="E4" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="K4" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45"/>
+      <c r="B5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
+      <c r="B6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="54" t="n">
+        <f aca="false">B6-$B$28</f>
+        <v>-6</v>
+      </c>
+      <c r="F6" s="55" t="n">
+        <f aca="false">C6-$C$28</f>
+        <v>-174</v>
+      </c>
+      <c r="G6" s="55" t="n">
+        <f aca="false">E6*F6</f>
+        <v>1044</v>
+      </c>
+      <c r="H6" s="55" t="n">
+        <f aca="false">E6^2</f>
+        <v>36</v>
+      </c>
+      <c r="I6" s="56" t="n">
+        <f aca="false">F6^2</f>
+        <v>30276</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="54" t="n">
+        <f aca="false">$J$24*B6+$J$25</f>
+        <v>-61</v>
+      </c>
+      <c r="L6" s="56" t="n">
+        <f aca="false">C6-K6</f>
+        <v>66</v>
+      </c>
+      <c r="M6" s="56" t="n">
+        <f aca="false">L6^2</f>
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45"/>
+      <c r="B7" s="13" t="n">
+        <f aca="false">B6+1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" s="54" t="n">
+        <f aca="false">B7-$B$28</f>
+        <v>-5</v>
+      </c>
+      <c r="F7" s="55" t="n">
+        <f aca="false">C7-$C$28</f>
+        <v>-167</v>
+      </c>
+      <c r="G7" s="55" t="n">
+        <f aca="false">E7*F7</f>
+        <v>835</v>
+      </c>
+      <c r="H7" s="55" t="n">
+        <f aca="false">E7^2</f>
+        <v>25</v>
+      </c>
+      <c r="I7" s="56" t="n">
+        <f aca="false">F7^2</f>
+        <v>27889</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="54" t="n">
+        <f aca="false">$J$24*B7+$J$25</f>
+        <v>-21</v>
+      </c>
+      <c r="L7" s="56" t="n">
+        <f aca="false">C7-K7</f>
+        <v>33</v>
+      </c>
+      <c r="M7" s="56" t="n">
+        <f aca="false">L7^2</f>
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45"/>
+      <c r="B8" s="13" t="n">
+        <f aca="false">B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" s="54" t="n">
+        <f aca="false">B8-$B$28</f>
+        <v>-4</v>
+      </c>
+      <c r="F8" s="55" t="n">
+        <f aca="false">C8-$C$28</f>
+        <v>-154</v>
+      </c>
+      <c r="G8" s="55" t="n">
+        <f aca="false">E8*F8</f>
+        <v>616</v>
+      </c>
+      <c r="H8" s="55" t="n">
+        <f aca="false">E8^2</f>
+        <v>16</v>
+      </c>
+      <c r="I8" s="56" t="n">
+        <f aca="false">F8^2</f>
+        <v>23716</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="54" t="n">
+        <f aca="false">$J$24*B8+$J$25</f>
+        <v>19</v>
+      </c>
+      <c r="L8" s="56" t="n">
+        <f aca="false">C8-K8</f>
+        <v>6</v>
+      </c>
+      <c r="M8" s="56" t="n">
+        <f aca="false">L8^2</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45"/>
+      <c r="B9" s="13" t="n">
+        <f aca="false">B8+1</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>44</v>
+      </c>
+      <c r="E9" s="54" t="n">
+        <f aca="false">B9-$B$28</f>
+        <v>-3</v>
+      </c>
+      <c r="F9" s="55" t="n">
+        <f aca="false">C9-$C$28</f>
+        <v>-135</v>
+      </c>
+      <c r="G9" s="55" t="n">
+        <f aca="false">E9*F9</f>
+        <v>405</v>
+      </c>
+      <c r="H9" s="55" t="n">
+        <f aca="false">E9^2</f>
+        <v>9</v>
+      </c>
+      <c r="I9" s="56" t="n">
+        <f aca="false">F9^2</f>
+        <v>18225</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="54" t="n">
+        <f aca="false">$J$24*B9+$J$25</f>
+        <v>59</v>
+      </c>
+      <c r="L9" s="56" t="n">
+        <f aca="false">C9-K9</f>
+        <v>-15</v>
+      </c>
+      <c r="M9" s="56" t="n">
+        <f aca="false">L9^2</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45"/>
+      <c r="B10" s="13" t="n">
+        <f aca="false">B9+1</f>
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>69</v>
+      </c>
+      <c r="E10" s="54" t="n">
+        <f aca="false">B10-$B$28</f>
+        <v>-2</v>
+      </c>
+      <c r="F10" s="55" t="n">
+        <f aca="false">C10-$C$28</f>
+        <v>-110</v>
+      </c>
+      <c r="G10" s="55" t="n">
+        <f aca="false">E10*F10</f>
+        <v>220</v>
+      </c>
+      <c r="H10" s="55" t="n">
+        <f aca="false">E10^2</f>
+        <v>4</v>
+      </c>
+      <c r="I10" s="56" t="n">
+        <f aca="false">F10^2</f>
+        <v>12100</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="54" t="n">
+        <f aca="false">$J$24*B10+$J$25</f>
+        <v>99</v>
+      </c>
+      <c r="L10" s="56" t="n">
+        <f aca="false">C10-K10</f>
+        <v>-30</v>
+      </c>
+      <c r="M10" s="56" t="n">
+        <f aca="false">L10^2</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45"/>
+      <c r="B11" s="13" t="n">
+        <f aca="false">B10+1</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" s="54" t="n">
+        <f aca="false">B11-$B$28</f>
+        <v>-1</v>
+      </c>
+      <c r="F11" s="55" t="n">
+        <f aca="false">C11-$C$28</f>
+        <v>-79</v>
+      </c>
+      <c r="G11" s="55" t="n">
+        <f aca="false">E11*F11</f>
+        <v>79</v>
+      </c>
+      <c r="H11" s="55" t="n">
+        <f aca="false">E11^2</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="56" t="n">
+        <f aca="false">F11^2</f>
+        <v>6241</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="54" t="n">
+        <f aca="false">$J$24*B11+$J$25</f>
+        <v>139</v>
+      </c>
+      <c r="L11" s="56" t="n">
+        <f aca="false">C11-K11</f>
+        <v>-39</v>
+      </c>
+      <c r="M11" s="56" t="n">
+        <f aca="false">L11^2</f>
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45"/>
+      <c r="B12" s="13" t="n">
+        <f aca="false">B11+1</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="n">
+        <v>137</v>
+      </c>
+      <c r="E12" s="54" t="n">
+        <f aca="false">B12-$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="55" t="n">
+        <f aca="false">C12-$C$28</f>
+        <v>-42</v>
+      </c>
+      <c r="G12" s="55" t="n">
+        <f aca="false">E12*F12</f>
+        <v>-0</v>
+      </c>
+      <c r="H12" s="55" t="n">
+        <f aca="false">E12^2</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="56" t="n">
+        <f aca="false">F12^2</f>
+        <v>1764</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="54" t="n">
+        <f aca="false">$J$24*B12+$J$25</f>
+        <v>179</v>
+      </c>
+      <c r="L12" s="56" t="n">
+        <f aca="false">C12-K12</f>
+        <v>-42</v>
+      </c>
+      <c r="M12" s="56" t="n">
+        <f aca="false">L12^2</f>
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="45"/>
+      <c r="B13" s="13" t="n">
+        <f aca="false">B12+1</f>
+        <v>7</v>
+      </c>
+      <c r="C13" s="12" t="n">
+        <v>180</v>
+      </c>
+      <c r="E13" s="54" t="n">
+        <f aca="false">B13-$B$28</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="55" t="n">
+        <f aca="false">C13-$C$28</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="55" t="n">
+        <f aca="false">E13*F13</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="55" t="n">
+        <f aca="false">E13^2</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="56" t="n">
+        <f aca="false">F13^2</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="54" t="n">
+        <f aca="false">$J$24*B13+$J$25</f>
+        <v>219</v>
+      </c>
+      <c r="L13" s="56" t="n">
+        <f aca="false">C13-K13</f>
+        <v>-39</v>
+      </c>
+      <c r="M13" s="56" t="n">
+        <f aca="false">L13^2</f>
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="45"/>
+      <c r="B14" s="13" t="n">
+        <f aca="false">B13+1</f>
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <v>229</v>
+      </c>
+      <c r="E14" s="54" t="n">
+        <f aca="false">B14-$B$28</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="55" t="n">
+        <f aca="false">C14-$C$28</f>
+        <v>50</v>
+      </c>
+      <c r="G14" s="55" t="n">
+        <f aca="false">E14*F14</f>
+        <v>100</v>
+      </c>
+      <c r="H14" s="55" t="n">
+        <f aca="false">E14^2</f>
+        <v>4</v>
+      </c>
+      <c r="I14" s="56" t="n">
+        <f aca="false">F14^2</f>
+        <v>2500</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="54" t="n">
+        <f aca="false">$J$24*B14+$J$25</f>
+        <v>259</v>
+      </c>
+      <c r="L14" s="56" t="n">
+        <f aca="false">C14-K14</f>
+        <v>-30</v>
+      </c>
+      <c r="M14" s="56" t="n">
+        <f aca="false">L14^2</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="45"/>
+      <c r="B15" s="13" t="n">
+        <f aca="false">B14+1</f>
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>284</v>
+      </c>
+      <c r="E15" s="54" t="n">
+        <f aca="false">B15-$B$28</f>
+        <v>3</v>
+      </c>
+      <c r="F15" s="55" t="n">
+        <f aca="false">C15-$C$28</f>
+        <v>105</v>
+      </c>
+      <c r="G15" s="55" t="n">
+        <f aca="false">E15*F15</f>
+        <v>315</v>
+      </c>
+      <c r="H15" s="55" t="n">
+        <f aca="false">E15^2</f>
+        <v>9</v>
+      </c>
+      <c r="I15" s="56" t="n">
+        <f aca="false">F15^2</f>
+        <v>11025</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="54" t="n">
+        <f aca="false">$J$24*B15+$J$25</f>
+        <v>299</v>
+      </c>
+      <c r="L15" s="56" t="n">
+        <f aca="false">C15-K15</f>
+        <v>-15</v>
+      </c>
+      <c r="M15" s="56" t="n">
+        <f aca="false">L15^2</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="45"/>
+      <c r="B16" s="13" t="n">
+        <f aca="false">B15+1</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>345</v>
+      </c>
+      <c r="E16" s="54" t="n">
+        <f aca="false">B16-$B$28</f>
+        <v>4</v>
+      </c>
+      <c r="F16" s="55" t="n">
+        <f aca="false">C16-$C$28</f>
+        <v>166</v>
+      </c>
+      <c r="G16" s="55" t="n">
+        <f aca="false">E16*F16</f>
+        <v>664</v>
+      </c>
+      <c r="H16" s="55" t="n">
+        <f aca="false">E16^2</f>
+        <v>16</v>
+      </c>
+      <c r="I16" s="56" t="n">
+        <f aca="false">F16^2</f>
+        <v>27556</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="54" t="n">
+        <f aca="false">$J$24*B16+$J$25</f>
+        <v>339</v>
+      </c>
+      <c r="L16" s="56" t="n">
+        <f aca="false">C16-K16</f>
+        <v>6</v>
+      </c>
+      <c r="M16" s="56" t="n">
+        <f aca="false">L16^2</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="45"/>
+      <c r="B17" s="13" t="n">
+        <f aca="false">B16+1</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <v>412</v>
+      </c>
+      <c r="E17" s="54" t="n">
+        <f aca="false">B17-$B$28</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="55" t="n">
+        <f aca="false">C17-$C$28</f>
+        <v>233</v>
+      </c>
+      <c r="G17" s="55" t="n">
+        <f aca="false">E17*F17</f>
+        <v>1165</v>
+      </c>
+      <c r="H17" s="55" t="n">
+        <f aca="false">E17^2</f>
+        <v>25</v>
+      </c>
+      <c r="I17" s="56" t="n">
+        <f aca="false">F17^2</f>
+        <v>54289</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="54" t="n">
+        <f aca="false">$J$24*B17+$J$25</f>
+        <v>379</v>
+      </c>
+      <c r="L17" s="56" t="n">
+        <f aca="false">C17-K17</f>
+        <v>33</v>
+      </c>
+      <c r="M17" s="56" t="n">
+        <f aca="false">L17^2</f>
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="45"/>
+      <c r="B18" s="13" t="n">
+        <f aca="false">B17+1</f>
+        <v>12</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <v>485</v>
+      </c>
+      <c r="E18" s="54" t="n">
+        <f aca="false">B18-$B$28</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="55" t="n">
+        <f aca="false">C18-$C$28</f>
+        <v>306</v>
+      </c>
+      <c r="G18" s="55" t="n">
+        <f aca="false">E18*F18</f>
+        <v>1836</v>
+      </c>
+      <c r="H18" s="55" t="n">
+        <f aca="false">E18^2</f>
+        <v>36</v>
+      </c>
+      <c r="I18" s="56" t="n">
+        <f aca="false">F18^2</f>
+        <v>93636</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="54" t="n">
+        <f aca="false">$J$24*B18+$J$25</f>
+        <v>419</v>
+      </c>
+      <c r="L18" s="56" t="n">
+        <f aca="false">C18-K18</f>
+        <v>66</v>
+      </c>
+      <c r="M18" s="56" t="n">
+        <f aca="false">L18^2</f>
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="45"/>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="45"/>
+      <c r="B20" s="23" t="n">
+        <f aca="false">SUM(B6:B18)</f>
+        <v>78</v>
+      </c>
+      <c r="C20" s="21" t="n">
+        <f aca="false">SUM(C6:C18)</f>
+        <v>2327</v>
+      </c>
+      <c r="E20" s="54" t="n">
+        <f aca="false">SUM(E6:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="55" t="n">
+        <f aca="false">SUM(F6:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="55" t="n">
+        <f aca="false">SUM(G6:G18)</f>
+        <v>7280</v>
+      </c>
+      <c r="H20" s="55" t="n">
+        <f aca="false">SUM(H6:H18)</f>
+        <v>182</v>
+      </c>
+      <c r="I20" s="56" t="n">
+        <f aca="false">SUM(I6:I18)</f>
+        <v>309218</v>
+      </c>
+      <c r="J20" s="56"/>
+      <c r="M20" s="56" t="n">
+        <f aca="false">SUM(M6:M18)</f>
+        <v>18018</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="45"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="48"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="21" t="n">
+        <f aca="false">H20/(B24-1)</f>
+        <v>15.1666666666667</v>
+      </c>
+      <c r="I21" s="58" t="n">
+        <f aca="false">I20/(C24-1)</f>
+        <v>25768.1666666667</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="45"/>
+      <c r="B22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="E22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="57" t="n">
+        <f aca="false">G20/(B24-1)</f>
+        <v>606.666666666667</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="21"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="45"/>
+      <c r="B23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="48"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="21" t="n">
+        <f aca="false">G20/SQRT(H20*I20)</f>
+        <v>0.970427962120068</v>
+      </c>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="45"/>
+      <c r="B24" s="23" t="n">
+        <f aca="false">COUNT(B6:B18)</f>
+        <v>13</v>
+      </c>
+      <c r="C24" s="21" t="n">
+        <f aca="false">COUNT(C6:C18)</f>
+        <v>13</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="21" t="n">
+        <f aca="false">G20/H20</f>
+        <v>40</v>
+      </c>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="45"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="21" t="n">
+        <f aca="false">C28-J24*B28</f>
+        <v>-61</v>
+      </c>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="45"/>
+      <c r="B26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="E26" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="48"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="21"/>
+      <c r="M26" s="58" t="n">
+        <f aca="false">1-M20/I20</f>
+        <v>0.941730429664509</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="45"/>
+      <c r="B27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="21"/>
+      <c r="M27" s="58" t="n">
+        <f aca="false">SQRT(M20/(B24-1))</f>
+        <v>38.7491935399951</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="45"/>
+      <c r="B28" s="23" t="n">
+        <f aca="false">AVERAGE(B6:B18)</f>
+        <v>6</v>
+      </c>
+      <c r="C28" s="21" t="n">
+        <f aca="false">AVERAGE(C6:C18)</f>
+        <v>179</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="21"/>
+      <c r="M28" s="58" t="n">
+        <f aca="false">M20/(B24-2)</f>
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="45"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="45"/>
+    </row>
+    <row r="31" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="45"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF1976D2"/>
@@ -3884,17 +5909,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="A1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="Q1" s="45"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+        <v>120</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -3909,107 +5934,107 @@
       <c r="Y2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="Q3" s="27"/>
+      <c r="A3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27"/>
-      <c r="B4" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="60"/>
       <c r="E4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="44"/>
+      <c r="J4" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="61"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="S4" s="44"/>
+      <c r="R4" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="S4" s="61"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="I5" s="27"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="4" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="45"/>
       <c r="R5" s="4" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="U5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27"/>
+      <c r="A6" s="45"/>
       <c r="E6" s="2"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="45"/>
       <c r="M6" s="2"/>
-      <c r="Q6" s="27"/>
+      <c r="Q6" s="45"/>
       <c r="U6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="7" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="I7" s="27"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="Q7" s="27"/>
+      <c r="Q7" s="45"/>
       <c r="R7" s="7" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27"/>
-      <c r="B8" s="45" t="s">
-        <v>110</v>
+      <c r="A8" s="45"/>
+      <c r="B8" s="62" t="s">
+        <v>164</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>5</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="45" t="s">
-        <v>110</v>
+      <c r="I8" s="45"/>
+      <c r="J8" s="62" t="s">
+        <v>164</v>
       </c>
       <c r="K8" s="12" t="n">
         <v>5</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="45" t="s">
-        <v>110</v>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="62" t="s">
+        <v>164</v>
       </c>
       <c r="S8" s="12" t="n">
         <v>5</v>
@@ -4018,25 +6043,25 @@
       <c r="Y8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27"/>
-      <c r="B9" s="45" t="s">
-        <v>93</v>
+      <c r="A9" s="45"/>
+      <c r="B9" s="62" t="s">
+        <v>140</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>4</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="45" t="s">
-        <v>93</v>
+      <c r="I9" s="45"/>
+      <c r="J9" s="62" t="s">
+        <v>140</v>
       </c>
       <c r="K9" s="12" t="n">
         <v>4</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="45" t="s">
-        <v>93</v>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="62" t="s">
+        <v>140</v>
       </c>
       <c r="S9" s="12" t="n">
         <v>4</v>
@@ -4045,21 +6070,21 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="45" t="s">
-        <v>111</v>
+      <c r="I10" s="45"/>
+      <c r="J10" s="62" t="s">
+        <v>165</v>
       </c>
       <c r="K10" s="12" t="n">
         <v>3</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="45" t="s">
-        <v>111</v>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="62" t="s">
+        <v>165</v>
       </c>
       <c r="S10" s="12" t="n">
         <v>3</v>
@@ -4068,17 +6093,17 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="I11" s="27"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="45" t="s">
-        <v>112</v>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="62" t="s">
+        <v>166</v>
       </c>
       <c r="S11" s="12" t="n">
         <v>2</v>
@@ -4087,16 +6112,16 @@
       <c r="Y11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27"/>
+      <c r="A12" s="45"/>
       <c r="E12" s="2"/>
-      <c r="I12" s="27"/>
+      <c r="I12" s="45"/>
       <c r="M12" s="2"/>
-      <c r="Q12" s="27"/>
+      <c r="Q12" s="45"/>
       <c r="U12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
@@ -4105,15 +6130,15 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>61</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="27"/>
+        <v>130</v>
+      </c>
+      <c r="I13" s="45"/>
       <c r="J13" s="7" t="s">
         <v>7</v>
       </c>
@@ -4122,15 +6147,15 @@
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>61</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="27"/>
+        <v>130</v>
+      </c>
+      <c r="Q13" s="45"/>
       <c r="R13" s="7" t="s">
         <v>7</v>
       </c>
@@ -4139,18 +6164,18 @@
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W13" s="8" t="s">
         <v>61</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="Y13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="13" t="n">
         <v>0</v>
       </c>
@@ -4159,15 +6184,15 @@
         <v>5</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="35" t="s">
-        <v>113</v>
+      <c r="F14" s="34" t="s">
+        <v>167</v>
       </c>
       <c r="G14" s="21" t="n">
         <f aca="false">SUM(B14:B26)</f>
         <v>78</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="27"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="13" t="n">
         <v>0</v>
       </c>
@@ -4176,15 +6201,15 @@
         <v>5</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="35" t="s">
-        <v>113</v>
+      <c r="N14" s="34" t="s">
+        <v>167</v>
       </c>
       <c r="O14" s="21" t="n">
         <f aca="false">SUM(J14:J26)</f>
         <v>78</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="27"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="45"/>
       <c r="R14" s="13" t="n">
         <v>0</v>
       </c>
@@ -4193,18 +6218,18 @@
         <v>5</v>
       </c>
       <c r="U14" s="2"/>
-      <c r="V14" s="35" t="s">
-        <v>113</v>
+      <c r="V14" s="34" t="s">
+        <v>167</v>
       </c>
       <c r="W14" s="21" t="n">
         <f aca="false">SUM(R14:R26)</f>
         <v>78</v>
       </c>
-      <c r="X14" s="46"/>
+      <c r="X14" s="63"/>
       <c r="Y14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="13" t="n">
         <f aca="false">B14+1</f>
         <v>1</v>
@@ -4214,15 +6239,15 @@
         <v>9</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="35" t="s">
-        <v>114</v>
+      <c r="F15" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="G15" s="21" t="n">
         <f aca="false">SUM(C14:C26)</f>
         <v>377</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="27"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="13" t="n">
         <f aca="false">J14+1</f>
         <v>1</v>
@@ -4232,15 +6257,15 @@
         <v>12</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="35" t="s">
-        <v>114</v>
+      <c r="N15" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="O15" s="21" t="n">
         <f aca="false">SUM(K14:K26)</f>
         <v>2327</v>
       </c>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="27"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="45"/>
       <c r="R15" s="13" t="n">
         <f aca="false">R14+1</f>
         <v>1</v>
@@ -4250,18 +6275,18 @@
         <v>14</v>
       </c>
       <c r="U15" s="2"/>
-      <c r="V15" s="35" t="s">
-        <v>114</v>
+      <c r="V15" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="W15" s="21" t="n">
         <f aca="false">SUM(S14:S26)</f>
         <v>14495</v>
       </c>
-      <c r="X15" s="46"/>
+      <c r="X15" s="63"/>
       <c r="Y15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="13" t="n">
         <f aca="false">B15+1</f>
         <v>2</v>
@@ -4271,15 +6296,15 @@
         <v>13</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="35" t="s">
-        <v>115</v>
+      <c r="F16" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="G16" s="21" t="n">
         <f aca="false">COUNT(B14:B26)</f>
         <v>13</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="27"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="13" t="n">
         <f aca="false">J15+1</f>
         <v>2</v>
@@ -4289,15 +6314,15 @@
         <v>25</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="35" t="s">
-        <v>115</v>
+      <c r="N16" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="O16" s="21" t="n">
         <f aca="false">COUNT(J14:J26)</f>
         <v>13</v>
       </c>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="27"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="45"/>
       <c r="R16" s="13" t="n">
         <f aca="false">R15+1</f>
         <v>2</v>
@@ -4307,18 +6332,18 @@
         <v>41</v>
       </c>
       <c r="U16" s="2"/>
-      <c r="V16" s="35" t="s">
-        <v>115</v>
+      <c r="V16" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="W16" s="21" t="n">
         <f aca="false">COUNT(R14:R26)</f>
         <v>13</v>
       </c>
-      <c r="X16" s="46"/>
+      <c r="X16" s="63"/>
       <c r="Y16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="13" t="n">
         <f aca="false">B16+1</f>
         <v>3</v>
@@ -4328,15 +6353,15 @@
         <v>17</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="35" t="s">
-        <v>116</v>
+      <c r="F17" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="G17" s="21" t="n">
         <f aca="false">COUNT(C14:C26)</f>
         <v>13</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="27"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="13" t="n">
         <f aca="false">J16+1</f>
         <v>3</v>
@@ -4346,15 +6371,15 @@
         <v>44</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="35" t="s">
-        <v>116</v>
+      <c r="N17" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="O17" s="21" t="n">
         <f aca="false">COUNT(K14:K26)</f>
         <v>13</v>
       </c>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="27"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="45"/>
       <c r="R17" s="13" t="n">
         <f aca="false">R16+1</f>
         <v>3</v>
@@ -4364,18 +6389,18 @@
         <v>98</v>
       </c>
       <c r="U17" s="2"/>
-      <c r="V17" s="35" t="s">
-        <v>116</v>
+      <c r="V17" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="W17" s="21" t="n">
         <f aca="false">COUNT(S14:S26)</f>
         <v>13</v>
       </c>
-      <c r="X17" s="46"/>
+      <c r="X17" s="63"/>
       <c r="Y17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="13" t="n">
         <f aca="false">B17+1</f>
         <v>4</v>
@@ -4385,8 +6410,8 @@
         <v>21</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="35" t="s">
-        <v>117</v>
+      <c r="F18" s="34" t="s">
+        <v>171</v>
       </c>
       <c r="G18" s="21" t="n">
         <f aca="false">AVERAGE(B14:B26)</f>
@@ -4396,7 +6421,7 @@
         <f aca="false">SUM(B14:B26)/COUNT(B14:B26)</f>
         <v>6</v>
       </c>
-      <c r="I18" s="27"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="13" t="n">
         <f aca="false">J17+1</f>
         <v>4</v>
@@ -4406,8 +6431,8 @@
         <v>69</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="35" t="s">
-        <v>117</v>
+      <c r="N18" s="34" t="s">
+        <v>171</v>
       </c>
       <c r="O18" s="21" t="n">
         <f aca="false">AVERAGE(J14:J26)</f>
@@ -4417,7 +6442,7 @@
         <f aca="false">SUM(J14:J26)/COUNT(J14:J26)</f>
         <v>6</v>
       </c>
-      <c r="Q18" s="27"/>
+      <c r="Q18" s="45"/>
       <c r="R18" s="13" t="n">
         <f aca="false">R17+1</f>
         <v>4</v>
@@ -4427,8 +6452,8 @@
         <v>197</v>
       </c>
       <c r="U18" s="2"/>
-      <c r="V18" s="35" t="s">
-        <v>117</v>
+      <c r="V18" s="34" t="s">
+        <v>171</v>
       </c>
       <c r="W18" s="21" t="n">
         <f aca="false">AVERAGE(R14:R26)</f>
@@ -4441,7 +6466,7 @@
       <c r="Y18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="13" t="n">
         <f aca="false">B18+1</f>
         <v>5</v>
@@ -4451,8 +6476,8 @@
         <v>25</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="35" t="s">
-        <v>118</v>
+      <c r="F19" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="G19" s="21" t="n">
         <f aca="false">AVERAGE(C14:C26)</f>
@@ -4462,7 +6487,7 @@
         <f aca="false">SUM(C14:C26)/COUNT(C14:C26)</f>
         <v>29</v>
       </c>
-      <c r="I19" s="27"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="13" t="n">
         <f aca="false">J18+1</f>
         <v>5</v>
@@ -4472,8 +6497,8 @@
         <v>100</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="35" t="s">
-        <v>118</v>
+      <c r="N19" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="O19" s="21" t="n">
         <f aca="false">AVERAGE(K14:K26)</f>
@@ -4483,7 +6508,7 @@
         <f aca="false">SUM(K14:K26)/COUNT(K14:K26)</f>
         <v>179</v>
       </c>
-      <c r="Q19" s="27"/>
+      <c r="Q19" s="45"/>
       <c r="R19" s="13" t="n">
         <f aca="false">R18+1</f>
         <v>5</v>
@@ -4493,8 +6518,8 @@
         <v>350</v>
       </c>
       <c r="U19" s="2"/>
-      <c r="V19" s="35" t="s">
-        <v>118</v>
+      <c r="V19" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="W19" s="21" t="n">
         <f aca="false">AVERAGE(S14:S26)</f>
@@ -4507,7 +6532,7 @@
       <c r="Y19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="13" t="n">
         <f aca="false">B19+1</f>
         <v>6</v>
@@ -4517,8 +6542,8 @@
         <v>29</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="35" t="s">
-        <v>119</v>
+      <c r="F20" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="G20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(B14:B26)</f>
@@ -4528,7 +6553,7 @@
         <f aca="false" t="array" ref="H20:H20">SUM(POWER(B14:B26 - H18,2))/(COUNT(B14:B26)-1)</f>
         <v>15.1666666666667</v>
       </c>
-      <c r="I20" s="27"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="13" t="n">
         <f aca="false">J19+1</f>
         <v>6</v>
@@ -4538,8 +6563,8 @@
         <v>137</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="35" t="s">
-        <v>119</v>
+      <c r="N20" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="O20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(J14:J26)</f>
@@ -4549,7 +6574,7 @@
         <f aca="false" t="array" ref="P20:P20">SUM(POWER(J14:J26 - P18,2))/(COUNT(J14:J26)-1)</f>
         <v>15.1666666666667</v>
       </c>
-      <c r="Q20" s="27"/>
+      <c r="Q20" s="45"/>
       <c r="R20" s="13" t="n">
         <f aca="false">R19+1</f>
         <v>6</v>
@@ -4559,8 +6584,8 @@
         <v>569</v>
       </c>
       <c r="U20" s="2"/>
-      <c r="V20" s="35" t="s">
-        <v>119</v>
+      <c r="V20" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="W20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(R14:R26)</f>
@@ -4573,7 +6598,7 @@
       <c r="Y20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="13" t="n">
         <f aca="false">B20+1</f>
         <v>7</v>
@@ -4583,8 +6608,8 @@
         <v>33</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="35" t="s">
-        <v>120</v>
+      <c r="F21" s="34" t="s">
+        <v>174</v>
       </c>
       <c r="G21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(C14:C26)</f>
@@ -4594,7 +6619,7 @@
         <f aca="false" t="array" ref="H21:H21">SUM(POWER(C14:C26 - H19,2))/(COUNT(C14:C26)-1)</f>
         <v>242.666666666667</v>
       </c>
-      <c r="I21" s="27"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="13" t="n">
         <f aca="false">J20+1</f>
         <v>7</v>
@@ -4604,8 +6629,8 @@
         <v>180</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="35" t="s">
-        <v>120</v>
+      <c r="N21" s="34" t="s">
+        <v>174</v>
       </c>
       <c r="O21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(K14:K26)</f>
@@ -4615,7 +6640,7 @@
         <f aca="false" t="array" ref="P21:P21">SUM(POWER(K14:K26 - P19,2))/(COUNT(K14:K26)-1)</f>
         <v>25768.1666666667</v>
       </c>
-      <c r="Q21" s="27"/>
+      <c r="Q21" s="45"/>
       <c r="R21" s="13" t="n">
         <f aca="false">R20+1</f>
         <v>7</v>
@@ -4625,8 +6650,8 @@
         <v>866</v>
       </c>
       <c r="U21" s="2"/>
-      <c r="V21" s="35" t="s">
-        <v>120</v>
+      <c r="V21" s="34" t="s">
+        <v>174</v>
       </c>
       <c r="W21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(S14:S26)</f>
@@ -4639,7 +6664,7 @@
       <c r="Y21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="13" t="n">
         <f aca="false">B21+1</f>
         <v>8</v>
@@ -4649,8 +6674,8 @@
         <v>37</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="35" t="s">
-        <v>121</v>
+      <c r="F22" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="G22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(B14:B26)</f>
@@ -4660,7 +6685,7 @@
         <f aca="false">SQRT(H20)</f>
         <v>3.89444048184931</v>
       </c>
-      <c r="I22" s="27"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="13" t="n">
         <f aca="false">J21+1</f>
         <v>8</v>
@@ -4670,8 +6695,8 @@
         <v>229</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="35" t="s">
-        <v>121</v>
+      <c r="N22" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="O22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(J14:J26)</f>
@@ -4681,7 +6706,7 @@
         <f aca="false">SQRT(P20)</f>
         <v>3.89444048184931</v>
       </c>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="45"/>
       <c r="R22" s="13" t="n">
         <f aca="false">R21+1</f>
         <v>8</v>
@@ -4691,8 +6716,8 @@
         <v>1253</v>
       </c>
       <c r="U22" s="2"/>
-      <c r="V22" s="35" t="s">
-        <v>121</v>
+      <c r="V22" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="W22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(R14:R26)</f>
@@ -4705,7 +6730,7 @@
       <c r="Y22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="13" t="n">
         <f aca="false">B22+1</f>
         <v>9</v>
@@ -4715,8 +6740,8 @@
         <v>41</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="35" t="s">
-        <v>122</v>
+      <c r="F23" s="34" t="s">
+        <v>176</v>
       </c>
       <c r="G23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(C14:C26)</f>
@@ -4726,7 +6751,7 @@
         <f aca="false">SQRT(H21)</f>
         <v>15.5777619273972</v>
       </c>
-      <c r="I23" s="27"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="13" t="n">
         <f aca="false">J22+1</f>
         <v>9</v>
@@ -4736,8 +6761,8 @@
         <v>284</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="35" t="s">
-        <v>122</v>
+      <c r="N23" s="34" t="s">
+        <v>176</v>
       </c>
       <c r="O23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(K14:K26)</f>
@@ -4747,7 +6772,7 @@
         <f aca="false">SQRT(P21)</f>
         <v>160.524660618444</v>
       </c>
-      <c r="Q23" s="27"/>
+      <c r="Q23" s="45"/>
       <c r="R23" s="13" t="n">
         <f aca="false">R22+1</f>
         <v>9</v>
@@ -4757,8 +6782,8 @@
         <v>1742</v>
       </c>
       <c r="U23" s="2"/>
-      <c r="V23" s="35" t="s">
-        <v>122</v>
+      <c r="V23" s="34" t="s">
+        <v>176</v>
       </c>
       <c r="W23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(S14:S26)</f>
@@ -4771,7 +6796,7 @@
       <c r="Y23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="13" t="n">
         <f aca="false">B23+1</f>
         <v>10</v>
@@ -4781,7 +6806,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="34" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="21" t="n">
@@ -4792,7 +6817,7 @@
         <f aca="false" t="array" ref="H24:H24">SUM((B14:B26-H18)*(C14:C26-H19))/(COUNT(B14:B26)-1)</f>
         <v>60.6666666666667</v>
       </c>
-      <c r="I24" s="27"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="13" t="n">
         <f aca="false">J23+1</f>
         <v>10</v>
@@ -4802,7 +6827,7 @@
         <v>345</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="35" t="s">
+      <c r="N24" s="34" t="s">
         <v>39</v>
       </c>
       <c r="O24" s="21" t="n">
@@ -4813,7 +6838,7 @@
         <f aca="false" t="array" ref="P24:P24">SUM((J14:J26-P18)*(K14:K26-P19))/(COUNT(J14:J26)-1)</f>
         <v>606.666666666667</v>
       </c>
-      <c r="Q24" s="27"/>
+      <c r="Q24" s="45"/>
       <c r="R24" s="13" t="n">
         <f aca="false">R23+1</f>
         <v>10</v>
@@ -4823,7 +6848,7 @@
         <v>2345</v>
       </c>
       <c r="U24" s="2"/>
-      <c r="V24" s="35" t="s">
+      <c r="V24" s="34" t="s">
         <v>39</v>
       </c>
       <c r="W24" s="21" t="n">
@@ -4837,7 +6862,7 @@
       <c r="Y24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="13" t="n">
         <f aca="false">B24+1</f>
         <v>11</v>
@@ -4847,8 +6872,8 @@
         <v>49</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="35" t="s">
-        <v>85</v>
+      <c r="F25" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="G25" s="21" t="n">
         <f aca="false">PEARSON(B14:B26,C14:C26)</f>
@@ -4858,7 +6883,7 @@
         <f aca="false">H24/(H22*H23)</f>
         <v>1</v>
       </c>
-      <c r="I25" s="27"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="13" t="n">
         <f aca="false">J24+1</f>
         <v>11</v>
@@ -4868,8 +6893,8 @@
         <v>412</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="35" t="s">
-        <v>85</v>
+      <c r="N25" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="O25" s="21" t="n">
         <f aca="false">PEARSON(J14:J26,K14:K26)</f>
@@ -4879,7 +6904,7 @@
         <f aca="false">P24/(P22*P23)</f>
         <v>0.970427962120068</v>
       </c>
-      <c r="Q25" s="27"/>
+      <c r="Q25" s="45"/>
       <c r="R25" s="13" t="n">
         <f aca="false">R24+1</f>
         <v>11</v>
@@ -4889,8 +6914,8 @@
         <v>3074</v>
       </c>
       <c r="U25" s="2"/>
-      <c r="V25" s="35" t="s">
-        <v>85</v>
+      <c r="V25" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="W25" s="21" t="n">
         <f aca="false">PEARSON(R14:R26,S14:S26)</f>
@@ -4903,7 +6928,7 @@
       <c r="Y25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="13" t="n">
         <f aca="false">B25+1</f>
         <v>12</v>
@@ -4913,13 +6938,13 @@
         <v>53</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="35"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21" t="n">
         <f aca="false" t="array" ref="H26:H26">SUM((B14:B26 - H18)*(C14:C26 - H19))/SQRT(SUM(POWER(B14:B26 - H18,2))*SUM(POWER(C14:C26 - H19,2)))</f>
         <v>1</v>
       </c>
-      <c r="I26" s="27"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="13" t="n">
         <f aca="false">J25+1</f>
         <v>12</v>
@@ -4929,13 +6954,13 @@
         <v>485</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="35"/>
+      <c r="N26" s="34"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21" t="n">
         <f aca="false" t="array" ref="P26:P26">SUM((J14:J26 - P18)*(K14:K26 - P19))/SQRT(SUM(POWER(J14:J26 - P18,2))*SUM(POWER(K14:K26 - P19,2)))</f>
         <v>0.970427962120068</v>
       </c>
-      <c r="Q26" s="27"/>
+      <c r="Q26" s="45"/>
       <c r="R26" s="13" t="n">
         <f aca="false">R25+1</f>
         <v>12</v>
@@ -4945,7 +6970,7 @@
         <v>3941</v>
       </c>
       <c r="U26" s="2"/>
-      <c r="V26" s="35"/>
+      <c r="V26" s="34"/>
       <c r="W26" s="21"/>
       <c r="X26" s="21" t="n">
         <f aca="false" t="array" ref="X26:X26">SUM((R14:R26 - X18)*(S14:S26 - X19))/SQRT(SUM(POWER(R14:R26 - X18,2))*SUM(POWER(S14:S26 - X19,2)))</f>
@@ -4954,12 +6979,12 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="35" t="s">
-        <v>123</v>
+      <c r="F27" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="G27" s="21" t="n">
         <f aca="false">SLOPE(B14:B26,C14:C26)</f>
@@ -4969,12 +6994,12 @@
         <f aca="false" t="array" ref="H27:H27">SUM((B14:B26 - H18)*(C14:C26 - H19))/SUM(POWER((B14:B26 - H18),2))</f>
         <v>4</v>
       </c>
-      <c r="I27" s="27"/>
+      <c r="I27" s="45"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="35" t="s">
-        <v>123</v>
+      <c r="N27" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="O27" s="21" t="n">
         <f aca="false">SLOPE(J14:J26,K14:K26)</f>
@@ -4984,12 +7009,12 @@
         <f aca="false" t="array" ref="P27:P27">SUM((J14:J26 - P18)*(K14:K26 - P19))/SUM(POWER((J14:J26 - P18),2))</f>
         <v>40</v>
       </c>
-      <c r="Q27" s="27"/>
+      <c r="Q27" s="45"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="35" t="s">
-        <v>123</v>
+      <c r="V27" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="W27" s="21" t="n">
         <f aca="false">SLOPE(R14:R26,S14:S26)</f>
@@ -5002,20 +7027,20 @@
       <c r="Y27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="Q28" s="27"/>
+      <c r="A28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="Q28" s="45"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="I29" s="27"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="Q29" s="27"/>
+      <c r="Q29" s="45"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>

--- a/python/math/polynomial/50-examples-properties.xlsx
+++ b/python/math/polynomial/50-examples-properties.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="187">
   <si>
     <t xml:space="preserve">Least Square</t>
   </si>
@@ -312,16 +312,16 @@
     <t xml:space="preserve">∑x</t>
   </si>
   <si>
-    <t xml:space="preserve">=SUM(B7:B19)</t>
+    <t xml:space="preserve">=SUM(x_observed)</t>
   </si>
   <si>
     <t xml:space="preserve">∑y</t>
   </si>
   <si>
-    <t xml:space="preserve">=SUM(C7:C19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=COUNT(B7:B19)</t>
+    <t xml:space="preserve">=SUM(y_observed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=COUNT(x_observed)</t>
   </si>
   <si>
     <t xml:space="preserve">=G9-1</t>
@@ -333,19 +333,19 @@
     <t xml:space="preserve">=G9-2</t>
   </si>
   <si>
-    <t xml:space="preserve">=AVERAGE(B7:B19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=AVERAGE(C7:C19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{=SUMSQ(B7:B19-$G$12)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{=SUMSQ(C7:C19-$G$13)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=SUMPRODUCT((B7:B19-$G$12),(C7:C19-$G$13))</t>
+    <t xml:space="preserve">=AVERAGE(x_observed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=AVERAGE(y_observed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{=SUMSQ(x_observed-$G$12)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{=SUMSQ(y_observed-$G$13)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SUMPRODUCT((x_observed-$G$12),(y_observed-$G$13))</t>
   </si>
   <si>
     <t xml:space="preserve">β̅₁ = m (slope)</t>
@@ -402,61 +402,88 @@
     <t xml:space="preserve">SSE = ∑ϵᵢ²</t>
   </si>
   <si>
+    <t xml:space="preserve">=SUMSQ(y_observed-y_predicted)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE = SSE/df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G27/G11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE(β₁) = std err slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SQRT(G28/G14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t-value = β̅₁/SE(β₁)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=G17/G29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=T.DIST.2T(G30;G11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SUM(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SUM(y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=COUNT(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=AVERAGE(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=AVERAGE(y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{=SUMSQ(x_sample-$G$12)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{=SUMSQ(y_sample-$G$13)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SUMPRODUCT((x_sample-$G$12),(y_sample-$G$13))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SLOPE(y_sample,x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=INTERCEPT(y_sample,x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=VAR.S(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sy² (variance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=VAR.S(y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=COVARIANCE.S(x_sample,y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=STDEV.S(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=STDEV.S(y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=PEARSON(x_sample,y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R² coeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=RSQ(y_sample,x_sample)</t>
+  </si>
+  <si>
     <t xml:space="preserve">{=SUMSQ(C7:C19-D7:D19)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSE = SSE/df</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=G27/G11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE(β₁) = std err slope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=SQRT(G28/G14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t-value = β̅₁/SE(β₁)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=G17/G29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=T.DIST.2T(G30;G11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=SLOPE(C7:C19;B7:B19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=INTERCEPT(C7:C19;B7:B19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=VAR.S(B7:B19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sy² (variance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=VAR.S(C7:C19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=COVARIANCE.S(B7:B19;C7:C19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=STDEV.S(B7:B19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=STDEV.S(C7:C19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=PEARSON(B7:B19;C7:C19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R² coeff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=RSQ(C7:C19;B7:B19)</t>
   </si>
   <si>
     <t xml:space="preserve">Statistic Properties of Sample</t>
@@ -1090,6 +1117,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1151,6 +1187,54 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="x_observed" displayName="x_observed" ref="B7:B19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="x_sample" displayName="x_sample" ref="B7:B19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="y_fit" displayName="y_fit" ref="D7:D19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="y_observed" displayName="y_observed" ref="C7:C19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="y_predicted" displayName="y_predicted" ref="D7:D19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="y_sample" displayName="y_sample" ref="C7:C19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1268,7 +1352,7 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1456,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>4.99999999999795</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="13" t="n">
@@ -1465,7 +1549,7 @@
       </c>
       <c r="F7" s="12" t="n">
         <f aca="false">C7-$C$30</f>
-        <v>-174.000000000002</v>
+        <v>-174</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="13" t="n">
@@ -1474,7 +1558,7 @@
       </c>
       <c r="I7" s="12" t="n">
         <f aca="false">E7*F7</f>
-        <v>1044.00000000001</v>
+        <v>1044</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="13" t="n">
@@ -1483,24 +1567,24 @@
       </c>
       <c r="L7" s="12" t="n">
         <f aca="false">F7^2</f>
-        <v>30276.0000000009</v>
+        <v>30276</v>
       </c>
       <c r="M7" s="12" t="n">
         <f aca="false">E7*F7</f>
-        <v>1044.00000000001</v>
+        <v>1044</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="13" t="n">
         <f aca="false">$I$26+$H$26*B7</f>
-        <v>-61.0000000000011</v>
+        <v>-61</v>
       </c>
       <c r="P7" s="12" t="n">
         <f aca="false">C7-O7</f>
-        <v>65.999999999999</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="12" t="n">
         <f aca="false">P7^2</f>
-        <v>4355.99999999987</v>
+        <v>4356</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1511,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>11.9999999999987</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="13" t="n">
@@ -1520,7 +1604,7 @@
       </c>
       <c r="F8" s="12" t="n">
         <f aca="false">C8-$C$30</f>
-        <v>-167.000000000002</v>
+        <v>-167</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="13" t="n">
@@ -1529,7 +1613,7 @@
       </c>
       <c r="I8" s="12" t="n">
         <f aca="false">E8*F8</f>
-        <v>835.000000000009</v>
+        <v>835</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="13" t="n">
@@ -1538,24 +1622,24 @@
       </c>
       <c r="L8" s="12" t="n">
         <f aca="false">F8^2</f>
-        <v>27889.0000000006</v>
+        <v>27889</v>
       </c>
       <c r="M8" s="12" t="n">
         <f aca="false">E8*F8</f>
-        <v>835.000000000009</v>
+        <v>835</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="13" t="n">
         <f aca="false">$I$26+$H$26*B8</f>
-        <v>-21.0000000000008</v>
+        <v>-21</v>
       </c>
       <c r="P8" s="12" t="n">
         <f aca="false">C8-O8</f>
-        <v>32.9999999999995</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="12" t="n">
         <f aca="false">P8^2</f>
-        <v>1088.99999999997</v>
+        <v>1089</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -1566,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>24.9999999999993</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="13" t="n">
@@ -1575,7 +1659,7 @@
       </c>
       <c r="F9" s="12" t="n">
         <f aca="false">C9-$C$30</f>
-        <v>-154.000000000001</v>
+        <v>-154</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="13" t="n">
@@ -1584,7 +1668,7 @@
       </c>
       <c r="I9" s="12" t="n">
         <f aca="false">E9*F9</f>
-        <v>616.000000000004</v>
+        <v>616</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="13" t="n">
@@ -1593,24 +1677,24 @@
       </c>
       <c r="L9" s="12" t="n">
         <f aca="false">F9^2</f>
-        <v>23716.0000000003</v>
+        <v>23716</v>
       </c>
       <c r="M9" s="12" t="n">
         <f aca="false">E9*F9</f>
-        <v>616.000000000004</v>
+        <v>616</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="13" t="n">
         <f aca="false">$I$26+$H$26*B9</f>
-        <v>18.9999999999994</v>
+        <v>19</v>
       </c>
       <c r="P9" s="12" t="n">
         <f aca="false">C9-O9</f>
-        <v>5.99999999999987</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="12" t="n">
         <f aca="false">P9^2</f>
-        <v>35.9999999999984</v>
+        <v>36</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -1621,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>43.9999999999998</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="13" t="n">
@@ -1630,7 +1714,7 @@
       </c>
       <c r="F10" s="12" t="n">
         <f aca="false">C10-$C$30</f>
-        <v>-135.000000000001</v>
+        <v>-135</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="13" t="n">
@@ -1639,7 +1723,7 @@
       </c>
       <c r="I10" s="12" t="n">
         <f aca="false">E10*F10</f>
-        <v>405.000000000002</v>
+        <v>405</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="13" t="n">
@@ -1648,24 +1732,24 @@
       </c>
       <c r="L10" s="12" t="n">
         <f aca="false">F10^2</f>
-        <v>18225.0000000002</v>
+        <v>18225</v>
       </c>
       <c r="M10" s="12" t="n">
         <f aca="false">E10*F10</f>
-        <v>405.000000000002</v>
+        <v>405</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="13" t="n">
         <f aca="false">$I$26+$H$26*B10</f>
-        <v>58.9999999999997</v>
+        <v>59</v>
       </c>
       <c r="P10" s="12" t="n">
         <f aca="false">C10-O10</f>
-        <v>-14.9999999999999</v>
+        <v>-15</v>
       </c>
       <c r="Q10" s="12" t="n">
         <f aca="false">P10^2</f>
-        <v>224.999999999996</v>
+        <v>225</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -1676,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>69.0000000000003</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="13" t="n">
@@ -1712,15 +1796,15 @@
       <c r="N11" s="4"/>
       <c r="O11" s="13" t="n">
         <f aca="false">$I$26+$H$26*B11</f>
-        <v>98.9999999999999</v>
+        <v>99</v>
       </c>
       <c r="P11" s="12" t="n">
         <f aca="false">C11-O11</f>
-        <v>-29.9999999999996</v>
+        <v>-30</v>
       </c>
       <c r="Q11" s="12" t="n">
         <f aca="false">P11^2</f>
-        <v>899.999999999977</v>
+        <v>900</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -1731,7 +1815,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>100.000000000001</v>
+        <v>100</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="13" t="n">
@@ -1740,7 +1824,7 @@
       </c>
       <c r="F12" s="12" t="n">
         <f aca="false">C12-$C$30</f>
-        <v>-78.9999999999994</v>
+        <v>-79</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="13" t="n">
@@ -1749,7 +1833,7 @@
       </c>
       <c r="I12" s="12" t="n">
         <f aca="false">E12*F12</f>
-        <v>78.9999999999994</v>
+        <v>79</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="13" t="n">
@@ -1758,11 +1842,11 @@
       </c>
       <c r="L12" s="12" t="n">
         <f aca="false">F12^2</f>
-        <v>6240.99999999991</v>
+        <v>6241</v>
       </c>
       <c r="M12" s="12" t="n">
         <f aca="false">E12*F12</f>
-        <v>78.9999999999994</v>
+        <v>79</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="13" t="n">
@@ -1771,11 +1855,11 @@
       </c>
       <c r="P12" s="12" t="n">
         <f aca="false">C12-O12</f>
-        <v>-38.9999999999992</v>
+        <v>-39</v>
       </c>
       <c r="Q12" s="12" t="n">
         <f aca="false">P12^2</f>
-        <v>1520.99999999993</v>
+        <v>1521</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -1786,7 +1870,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>137.000000000001</v>
+        <v>137</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="13" t="n">
@@ -1795,7 +1879,7 @@
       </c>
       <c r="F13" s="12" t="n">
         <f aca="false">C13-$C$30</f>
-        <v>-41.9999999999994</v>
+        <v>-42</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="13" t="n">
@@ -1813,7 +1897,7 @@
       </c>
       <c r="L13" s="12" t="n">
         <f aca="false">F13^2</f>
-        <v>1763.99999999995</v>
+        <v>1764</v>
       </c>
       <c r="M13" s="12" t="n">
         <f aca="false">E13*F13</f>
@@ -1826,11 +1910,11 @@
       </c>
       <c r="P13" s="12" t="n">
         <f aca="false">C13-O13</f>
-        <v>-41.9999999999994</v>
+        <v>-42</v>
       </c>
       <c r="Q13" s="12" t="n">
         <f aca="false">P13^2</f>
-        <v>1763.99999999995</v>
+        <v>1764</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -1841,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>180.000000000001</v>
+        <v>180</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="13" t="n">
@@ -1850,7 +1934,7 @@
       </c>
       <c r="F14" s="12" t="n">
         <f aca="false">C14-$C$30</f>
-        <v>1.0000000000006</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="13" t="n">
@@ -1859,7 +1943,7 @@
       </c>
       <c r="I14" s="12" t="n">
         <f aca="false">E14*F14</f>
-        <v>1.0000000000006</v>
+        <v>1</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="13" t="n">
@@ -1868,24 +1952,24 @@
       </c>
       <c r="L14" s="12" t="n">
         <f aca="false">F14^2</f>
-        <v>1.00000000000119</v>
+        <v>1</v>
       </c>
       <c r="M14" s="12" t="n">
         <f aca="false">E14*F14</f>
-        <v>1.0000000000006</v>
+        <v>1</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="13" t="n">
         <f aca="false">$I$26+$H$26*B14</f>
-        <v>219.000000000001</v>
+        <v>219</v>
       </c>
       <c r="P14" s="12" t="n">
         <f aca="false">C14-O14</f>
-        <v>-38.9999999999997</v>
+        <v>-39</v>
       </c>
       <c r="Q14" s="12" t="n">
         <f aca="false">P14^2</f>
-        <v>1520.99999999997</v>
+        <v>1521</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -1896,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>229.000000000001</v>
+        <v>229</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="13" t="n">
@@ -1905,7 +1989,7 @@
       </c>
       <c r="F15" s="12" t="n">
         <f aca="false">C15-$C$30</f>
-        <v>50.0000000000006</v>
+        <v>50</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="13" t="n">
@@ -1914,7 +1998,7 @@
       </c>
       <c r="I15" s="12" t="n">
         <f aca="false">E15*F15</f>
-        <v>100.000000000001</v>
+        <v>100</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="13" t="n">
@@ -1923,24 +2007,24 @@
       </c>
       <c r="L15" s="12" t="n">
         <f aca="false">F15^2</f>
-        <v>2500.00000000006</v>
+        <v>2500</v>
       </c>
       <c r="M15" s="12" t="n">
         <f aca="false">E15*F15</f>
-        <v>100.000000000001</v>
+        <v>100</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="13" t="n">
         <f aca="false">$I$26+$H$26*B15</f>
-        <v>259.000000000001</v>
+        <v>259</v>
       </c>
       <c r="P15" s="12" t="n">
         <f aca="false">C15-O15</f>
-        <v>-29.9999999999999</v>
+        <v>-30</v>
       </c>
       <c r="Q15" s="12" t="n">
         <f aca="false">P15^2</f>
-        <v>899.999999999995</v>
+        <v>900</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -1951,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>284.000000000002</v>
+        <v>284</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="13" t="n">
@@ -1960,7 +2044,7 @@
       </c>
       <c r="F16" s="12" t="n">
         <f aca="false">C16-$C$30</f>
-        <v>105.000000000002</v>
+        <v>105</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="13" t="n">
@@ -1969,7 +2053,7 @@
       </c>
       <c r="I16" s="12" t="n">
         <f aca="false">E16*F16</f>
-        <v>315.000000000005</v>
+        <v>315</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="13" t="n">
@@ -1978,24 +2062,24 @@
       </c>
       <c r="L16" s="12" t="n">
         <f aca="false">F16^2</f>
-        <v>11025.0000000003</v>
+        <v>11025</v>
       </c>
       <c r="M16" s="12" t="n">
         <f aca="false">E16*F16</f>
-        <v>315.000000000005</v>
+        <v>315</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="13" t="n">
         <f aca="false">$I$26+$H$26*B16</f>
-        <v>299.000000000001</v>
+        <v>299</v>
       </c>
       <c r="P16" s="12" t="n">
         <f aca="false">C16-O16</f>
-        <v>-14.9999999999991</v>
+        <v>-15</v>
       </c>
       <c r="Q16" s="12" t="n">
         <f aca="false">P16^2</f>
-        <v>224.999999999974</v>
+        <v>225</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -2006,7 +2090,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>345.000000000001</v>
+        <v>345</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="13" t="n">
@@ -2015,7 +2099,7 @@
       </c>
       <c r="F17" s="12" t="n">
         <f aca="false">C17-$C$30</f>
-        <v>166.000000000001</v>
+        <v>166</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="13" t="n">
@@ -2024,7 +2108,7 @@
       </c>
       <c r="I17" s="12" t="n">
         <f aca="false">E17*F17</f>
-        <v>664.000000000003</v>
+        <v>664</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="13" t="n">
@@ -2033,24 +2117,24 @@
       </c>
       <c r="L17" s="12" t="n">
         <f aca="false">F17^2</f>
-        <v>27556.0000000002</v>
+        <v>27556</v>
       </c>
       <c r="M17" s="12" t="n">
         <f aca="false">E17*F17</f>
-        <v>664.000000000003</v>
+        <v>664</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="13" t="n">
         <f aca="false">$I$26+$H$26*B17</f>
-        <v>339.000000000001</v>
+        <v>339</v>
       </c>
       <c r="P17" s="12" t="n">
         <f aca="false">C17-O17</f>
-        <v>5.99999999999966</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="12" t="n">
         <f aca="false">P17^2</f>
-        <v>35.9999999999959</v>
+        <v>36</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2061,7 +2145,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>412.000000000001</v>
+        <v>412</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="13" t="n">
@@ -2070,7 +2154,7 @@
       </c>
       <c r="F18" s="12" t="n">
         <f aca="false">C18-$C$30</f>
-        <v>233.000000000001</v>
+        <v>233</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="13" t="n">
@@ -2088,7 +2172,7 @@
       </c>
       <c r="L18" s="12" t="n">
         <f aca="false">F18^2</f>
-        <v>54289.0000000003</v>
+        <v>54289</v>
       </c>
       <c r="M18" s="12" t="n">
         <f aca="false">E18*F18</f>
@@ -2097,15 +2181,15 @@
       <c r="N18" s="4"/>
       <c r="O18" s="13" t="n">
         <f aca="false">$I$26+$H$26*B18</f>
-        <v>379.000000000002</v>
+        <v>379</v>
       </c>
       <c r="P18" s="12" t="n">
         <f aca="false">C18-O18</f>
-        <v>32.9999999999994</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="12" t="n">
         <f aca="false">P18^2</f>
-        <v>1088.99999999996</v>
+        <v>1089</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -2116,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>485.000000000001</v>
+        <v>485</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="13" t="n">
@@ -2125,7 +2209,7 @@
       </c>
       <c r="F19" s="12" t="n">
         <f aca="false">C19-$C$30</f>
-        <v>306.000000000001</v>
+        <v>306</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="13" t="n">
@@ -2143,7 +2227,7 @@
       </c>
       <c r="L19" s="12" t="n">
         <f aca="false">F19^2</f>
-        <v>93636.0000000004</v>
+        <v>93636</v>
       </c>
       <c r="M19" s="12" t="n">
         <f aca="false">E19*F19</f>
@@ -2152,15 +2236,15 @@
       <c r="N19" s="4"/>
       <c r="O19" s="13" t="n">
         <f aca="false">$I$26+$H$26*B19</f>
-        <v>419.000000000002</v>
+        <v>419</v>
       </c>
       <c r="P19" s="12" t="n">
         <f aca="false">C19-O19</f>
-        <v>65.9999999999992</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="12" t="n">
         <f aca="false">P19^2</f>
-        <v>4355.99999999989</v>
+        <v>4356</v>
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
@@ -2235,7 +2319,7 @@
       </c>
       <c r="C22" s="12" t="n">
         <f aca="false">SUM(C7:C19)</f>
-        <v>2327.00000000001</v>
+        <v>2327</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="11" t="n">
@@ -2253,7 +2337,7 @@
       </c>
       <c r="I22" s="12" t="n">
         <f aca="false">SUM(I7:I19)</f>
-        <v>7280.00000000005</v>
+        <v>7280</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="11" t="n">
@@ -2262,18 +2346,18 @@
       </c>
       <c r="L22" s="12" t="n">
         <f aca="false">SUM(L7:L19)</f>
-        <v>309218.000000003</v>
+        <v>309218</v>
       </c>
       <c r="M22" s="12" t="n">
         <f aca="false">SUM(M7:M19)</f>
-        <v>7280.00000000005</v>
+        <v>7280</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="18" t="n">
         <f aca="false">SUM(Q7:Q19)</f>
-        <v>18017.9999999995</v>
+        <v>18018</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
@@ -2373,7 +2457,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="18" t="n">
         <f aca="false">Q22/$E$30</f>
-        <v>1637.99999999995</v>
+        <v>1638</v>
       </c>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -2400,11 +2484,11 @@
       <c r="G26" s="4"/>
       <c r="H26" s="20" t="n">
         <f aca="false">I22/H22</f>
-        <v>40.0000000000002</v>
+        <v>40</v>
       </c>
       <c r="I26" s="21" t="n">
         <f aca="false">C30-H26*B30</f>
-        <v>-61.0000000000011</v>
+        <v>-61</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="20" t="n">
@@ -2413,11 +2497,11 @@
       </c>
       <c r="L26" s="21" t="n">
         <f aca="false">L22/F26</f>
-        <v>25768.1666666669</v>
+        <v>25768.1666666667</v>
       </c>
       <c r="M26" s="21" t="n">
         <f aca="false">M22/E26</f>
-        <v>606.66666666667</v>
+        <v>606.666666666667</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
@@ -2546,18 +2630,18 @@
       </c>
       <c r="L30" s="21" t="n">
         <f aca="false">SQRT(L26)</f>
-        <v>160.524660618445</v>
+        <v>160.524660618444</v>
       </c>
       <c r="M30" s="21" t="n">
         <f aca="false">M26/(K30*L30)</f>
-        <v>0.970427962120069</v>
+        <v>0.970427962120067</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="23" t="n">
         <f aca="false">SQRT(Q25/K22)</f>
-        <v>2.99999999999996</v>
+        <v>3</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
@@ -2625,7 +2709,7 @@
       <c r="L33" s="24"/>
       <c r="M33" s="21" t="n">
         <f aca="false">M30^2</f>
-        <v>0.941730429664511</v>
+        <v>0.941730429664507</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="3"/>
@@ -2684,18 +2768,18 @@
       <c r="L35" s="24"/>
       <c r="M35" s="21" t="n">
         <f aca="false">1-(1-M33)*(B26-1)/(B26-1-1)</f>
-        <v>0.936433195997648</v>
+        <v>0.936433195997644</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="23" t="n">
         <f aca="false">H26/Q30</f>
-        <v>13.3333333333336</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="R35" s="26" t="n">
         <f aca="false">_xlfn.T.DIST.2T(Q35,$E$30)</f>
-        <v>3.91117071946751E-008</v>
+        <v>3.91117071946834E-008</v>
       </c>
       <c r="S35" s="4"/>
     </row>
@@ -2753,19 +2837,18 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="2.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="40.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="45.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="2.56"/>
   </cols>
   <sheetData>
@@ -2869,18 +2952,18 @@
         <v>0</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>4.99999999999795</v>
+        <v>5</v>
       </c>
       <c r="D7" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B7</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B7</f>
+        <v>-61</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="34" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="35" t="n">
-        <f aca="false">SUM(B7:B19)</f>
+        <f aca="false">SUM(x_observed)</f>
         <v>78</v>
       </c>
       <c r="H7" s="36"/>
@@ -2895,19 +2978,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>11.9999999999987</v>
+        <v>12</v>
       </c>
       <c r="D8" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B8</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B8</f>
+        <v>-21</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="34" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="35" t="n">
-        <f aca="false">SUM(C7:C19)</f>
-        <v>2327.00000000001</v>
+        <f aca="false">SUM(y_observed)</f>
+        <v>2327</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="37" t="s">
@@ -2921,18 +3004,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>24.9999999999993</v>
+        <v>25</v>
       </c>
       <c r="D9" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B9</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B9</f>
+        <v>19</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="34" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="35" t="n">
-        <f aca="false">COUNT(B7:B19)</f>
+        <f aca="false">COUNT(x_observed)</f>
         <v>13</v>
       </c>
       <c r="H9" s="36"/>
@@ -2947,11 +3030,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>43.9999999999998</v>
+        <v>44</v>
       </c>
       <c r="D10" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B10</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B10</f>
+        <v>59</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="34" t="s">
@@ -2973,11 +3056,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>69.0000000000003</v>
+        <v>69</v>
       </c>
       <c r="D11" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B11</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B11</f>
+        <v>99</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="34" t="s">
@@ -2999,18 +3082,18 @@
         <v>5</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>100.000000000001</v>
+        <v>100</v>
       </c>
       <c r="D12" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B12</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B12</f>
+        <v>139</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="34" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="38" t="n">
-        <f aca="false">AVERAGE(B7:B19)</f>
+        <f aca="false">AVERAGE(x_observed)</f>
         <v>6</v>
       </c>
       <c r="H12" s="39"/>
@@ -3025,18 +3108,18 @@
         <v>6</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>137.000000000001</v>
+        <v>137</v>
       </c>
       <c r="D13" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B13</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B13</f>
+        <v>179</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="34" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="38" t="n">
-        <f aca="false">AVERAGE(C7:C19)</f>
+        <f aca="false">AVERAGE(y_observed)</f>
         <v>179</v>
       </c>
       <c r="H13" s="39"/>
@@ -3051,18 +3134,18 @@
         <v>7</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>180.000000000001</v>
+        <v>180</v>
       </c>
       <c r="D14" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B14</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B14</f>
+        <v>219</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="34" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="38" t="n">
-        <f aca="false" t="array" ref="G14:G14">SUMSQ(B7:B19-$G$12)</f>
+        <f aca="false">SUMSQ(x_observed-$G$12)</f>
         <v>182</v>
       </c>
       <c r="H14" s="39"/>
@@ -3077,19 +3160,19 @@
         <v>8</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>229.000000000001</v>
+        <v>229</v>
       </c>
       <c r="D15" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B15</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B15</f>
+        <v>259</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="34" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="38" t="n">
-        <f aca="false" t="array" ref="G15:G15">SUMSQ(C7:C19-$G$13)</f>
-        <v>309218.000000003</v>
+        <f aca="false">SUMSQ(y_observed-$G$13)</f>
+        <v>309218</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="40" t="s">
@@ -3103,19 +3186,19 @@
         <v>9</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>284.000000000002</v>
+        <v>284</v>
       </c>
       <c r="D16" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B16</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B16</f>
+        <v>299</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="38" t="n">
-        <f aca="false">SUMPRODUCT((B7:B19-$G$12),(C7:C19-$G$13))</f>
-        <v>7280.00000000005</v>
+        <f aca="false">SUMPRODUCT((x_observed-$G$12),(y_observed-$G$13))</f>
+        <v>7280</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="40" t="s">
@@ -3129,11 +3212,11 @@
         <v>10</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>345.000000000001</v>
+        <v>345</v>
       </c>
       <c r="D17" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B17</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B17</f>
+        <v>339</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="34" t="s">
@@ -3141,7 +3224,7 @@
       </c>
       <c r="G17" s="38" t="n">
         <f aca="false">G16/G14</f>
-        <v>40.0000000000002</v>
+        <v>40</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="40" t="s">
@@ -3155,11 +3238,11 @@
         <v>11</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>412.000000000001</v>
+        <v>412</v>
       </c>
       <c r="D18" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B18</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B18</f>
+        <v>379</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="34" t="s">
@@ -3167,7 +3250,7 @@
       </c>
       <c r="G18" s="38" t="n">
         <f aca="false">G13-G17*G12</f>
-        <v>-61.0000000000011</v>
+        <v>-61</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="40" t="s">
@@ -3181,11 +3264,11 @@
         <v>12</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>485.000000000001</v>
+        <v>485</v>
       </c>
       <c r="D19" s="12" t="n">
-        <f aca="false">$H$18+$H$17*B19</f>
-        <v>0</v>
+        <f aca="false">$G$18+$G$17*B19</f>
+        <v>419</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="34" t="s">
@@ -3212,7 +3295,7 @@
       </c>
       <c r="G20" s="38" t="n">
         <f aca="false">G15/G10</f>
-        <v>25768.1666666669</v>
+        <v>25768.1666666667</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="40" t="s">
@@ -3231,7 +3314,7 @@
       </c>
       <c r="G21" s="38" t="n">
         <f aca="false">G16/G10</f>
-        <v>606.66666666667</v>
+        <v>606.666666666667</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="40" t="s">
@@ -3269,7 +3352,7 @@
       </c>
       <c r="G23" s="38" t="n">
         <f aca="false">SQRT(G20)</f>
-        <v>160.524660618445</v>
+        <v>160.524660618444</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="40" t="s">
@@ -3288,7 +3371,7 @@
       </c>
       <c r="G24" s="38" t="n">
         <f aca="false">G21/(G22*G23)</f>
-        <v>0.970427962120069</v>
+        <v>0.970427962120068</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="40" t="s">
@@ -3307,7 +3390,7 @@
       </c>
       <c r="G25" s="41" t="n">
         <f aca="false">G24^2</f>
-        <v>0.941730429664511</v>
+        <v>0.941730429664508</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="40" t="s">
@@ -3326,7 +3409,7 @@
       </c>
       <c r="G26" s="41" t="n">
         <f aca="false">1-(1-G25)*G10/G11</f>
-        <v>0.936433195997648</v>
+        <v>0.936433195997646</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="40" t="s">
@@ -3344,8 +3427,8 @@
         <v>100</v>
       </c>
       <c r="G27" s="38" t="n">
-        <f aca="false" t="array" ref="G27:G27">SUMSQ(C7:C19-D7:D19)</f>
-        <v>725751.000000005</v>
+        <f aca="false">SUMSQ(y_observed-y_predicted)</f>
+        <v>18018</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="40" t="s">
@@ -3364,7 +3447,7 @@
       </c>
       <c r="G28" s="38" t="n">
         <f aca="false">G27/G11</f>
-        <v>65977.3636363641</v>
+        <v>1638</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="40" t="s">
@@ -3383,7 +3466,7 @@
       </c>
       <c r="G29" s="38" t="n">
         <f aca="false">SQRT(G28/G14)</f>
-        <v>19.039773817275</v>
+        <v>3</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="40" t="s">
@@ -3402,7 +3485,7 @@
       </c>
       <c r="G30" s="38" t="n">
         <f aca="false">G17/G29</f>
-        <v>2.10086529303767</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="40" t="s">
@@ -3421,7 +3504,7 @@
       </c>
       <c r="G31" s="42" t="n">
         <f aca="false">_xlfn.T.DIST.2T(G30,G11)</f>
-        <v>0.0595110960710284</v>
+        <v>3.91117071946834E-008</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="44" t="s">
@@ -3453,6 +3536,11 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3465,19 +3553,18 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="2.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="40.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="45.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="2.56"/>
   </cols>
   <sheetData>
@@ -3581,23 +3668,23 @@
         <v>0</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>4.99999999999795</v>
+        <v>5</v>
       </c>
       <c r="D7" s="12" t="n">
         <f aca="false">$G$18+$G$17*B7</f>
-        <v>-61.0000000000011</v>
+        <v>-61</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="34" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="35" t="n">
-        <f aca="false">SUM(B7:B19)</f>
+        <f aca="false">SUM(x_sample)</f>
         <v>78</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="37" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -3607,23 +3694,23 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>11.9999999999987</v>
+        <v>12</v>
       </c>
       <c r="D8" s="12" t="n">
         <f aca="false">$G$18+$G$17*B8</f>
-        <v>-21.0000000000008</v>
+        <v>-21</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="34" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="35" t="n">
-        <f aca="false">SUM(C7:C19)</f>
-        <v>2327.00000000001</v>
+        <f aca="false">SUM(y_sample)</f>
+        <v>2327</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="37" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -3633,23 +3720,23 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>24.9999999999993</v>
+        <v>25</v>
       </c>
       <c r="D9" s="12" t="n">
         <f aca="false">$G$18+$G$17*B9</f>
-        <v>18.9999999999994</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="34" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="35" t="n">
-        <f aca="false">COUNT(B7:B19)</f>
+        <f aca="false">COUNT(x_sample)</f>
         <v>13</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="37" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -3659,11 +3746,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>43.9999999999998</v>
+        <v>44</v>
       </c>
       <c r="D10" s="12" t="n">
         <f aca="false">$G$18+$G$17*B10</f>
-        <v>58.9999999999997</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="34" t="s">
@@ -3685,11 +3772,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="12" t="n">
-        <v>69.0000000000003</v>
+        <v>69</v>
       </c>
       <c r="D11" s="12" t="n">
         <f aca="false">$G$18+$G$17*B11</f>
-        <v>98.9999999999999</v>
+        <v>99</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="34" t="s">
@@ -3711,7 +3798,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>100.000000000001</v>
+        <v>100</v>
       </c>
       <c r="D12" s="12" t="n">
         <f aca="false">$G$18+$G$17*B12</f>
@@ -3722,12 +3809,12 @@
         <v>46</v>
       </c>
       <c r="G12" s="38" t="n">
-        <f aca="false">AVERAGE(B7:B19)</f>
+        <f aca="false">AVERAGE(x_sample)</f>
         <v>6</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="40" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="J12" s="4"/>
     </row>
@@ -3737,7 +3824,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>137.000000000001</v>
+        <v>137</v>
       </c>
       <c r="D13" s="12" t="n">
         <f aca="false">$G$18+$G$17*B13</f>
@@ -3748,12 +3835,12 @@
         <v>47</v>
       </c>
       <c r="G13" s="38" t="n">
-        <f aca="false">AVERAGE(C7:C19)</f>
+        <f aca="false">AVERAGE(y_sample)</f>
         <v>179</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="40" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -3763,23 +3850,23 @@
         <v>7</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>180.000000000001</v>
+        <v>180</v>
       </c>
       <c r="D14" s="12" t="n">
         <f aca="false">$G$18+$G$17*B14</f>
-        <v>219.000000000001</v>
+        <v>219</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="34" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="38" t="n">
-        <f aca="false" t="array" ref="G14:G14">SUMSQ(B7:B19-$G$12)</f>
+        <f aca="false" t="array" ref="G14:G14">SUMSQ(x_sample-$G$12)</f>
         <v>182</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="40" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -3789,23 +3876,23 @@
         <v>8</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>229.000000000001</v>
+        <v>229</v>
       </c>
       <c r="D15" s="12" t="n">
         <f aca="false">$G$18+$G$17*B15</f>
-        <v>259.000000000001</v>
+        <v>259</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="34" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="38" t="n">
-        <f aca="false" t="array" ref="G15:G15">SUMSQ(C7:C19-$G$13)</f>
-        <v>309218.000000003</v>
+        <f aca="false" t="array" ref="G15:G15">SUMSQ(y_sample-$G$13)</f>
+        <v>309218</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="40" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="J15" s="4"/>
     </row>
@@ -3815,23 +3902,23 @@
         <v>9</v>
       </c>
       <c r="C16" s="12" t="n">
-        <v>284.000000000002</v>
+        <v>284</v>
       </c>
       <c r="D16" s="12" t="n">
         <f aca="false">$G$18+$G$17*B16</f>
-        <v>299.000000000001</v>
+        <v>299</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="38" t="n">
-        <f aca="false">SUMPRODUCT((B7:B19-$G$12),(C7:C19-$G$13))</f>
-        <v>7280.00000000005</v>
+        <f aca="false">SUMPRODUCT((x_sample-$G$12),(y_sample-$G$13))</f>
+        <v>7280</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="40" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -3841,23 +3928,23 @@
         <v>10</v>
       </c>
       <c r="C17" s="12" t="n">
-        <v>345.000000000001</v>
+        <v>345</v>
       </c>
       <c r="D17" s="12" t="n">
         <f aca="false">$G$18+$G$17*B17</f>
-        <v>339.000000000001</v>
+        <v>339</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="34" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="38" t="n">
-        <f aca="false">SLOPE(C7:C19,B7:B19)</f>
-        <v>40.0000000000002</v>
+        <f aca="false">SLOPE(y_sample,x_sample)</f>
+        <v>40</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="40" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -3867,23 +3954,23 @@
         <v>11</v>
       </c>
       <c r="C18" s="12" t="n">
-        <v>412.000000000001</v>
+        <v>412</v>
       </c>
       <c r="D18" s="12" t="n">
         <f aca="false">$G$18+$G$17*B18</f>
-        <v>379.000000000002</v>
+        <v>379</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="34" t="s">
         <v>85</v>
       </c>
       <c r="G18" s="38" t="n">
-        <f aca="false">INTERCEPT(C7:C19,B7:B19)</f>
-        <v>-61.0000000000011</v>
+        <f aca="false">INTERCEPT(y_sample,x_sample)</f>
+        <v>-61</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="40" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -3893,23 +3980,23 @@
         <v>12</v>
       </c>
       <c r="C19" s="12" t="n">
-        <v>485.000000000001</v>
+        <v>485</v>
       </c>
       <c r="D19" s="12" t="n">
         <f aca="false">$G$18+$G$17*B19</f>
-        <v>419.000000000002</v>
+        <v>419</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="34" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="38" t="n">
-        <f aca="false">_xlfn.VAR.S(B7:B19)</f>
+        <f aca="false">_xlfn.VAR.S(x_sample)</f>
         <v>15.1666666666667</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="40" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -3920,15 +4007,15 @@
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="34" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G20" s="38" t="n">
-        <f aca="false">_xlfn.VAR.S(C7:C19)</f>
-        <v>25768.1666666669</v>
+        <f aca="false">_xlfn.VAR.S(y_sample)</f>
+        <v>25768.1666666667</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="40" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -3942,12 +4029,12 @@
         <v>39</v>
       </c>
       <c r="G21" s="38" t="n">
-        <f aca="false">_xlfn.COVARIANCE.S(B7:B19,C7:C19)</f>
-        <v>606.66666666667</v>
+        <f aca="false">_xlfn.COVARIANCE.S(x_sample,y_sample)</f>
+        <v>606.666666666667</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="40" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -3961,12 +4048,12 @@
         <v>50</v>
       </c>
       <c r="G22" s="38" t="n">
-        <f aca="false">_xlfn.STDEV.S(B7:B19)</f>
+        <f aca="false">_xlfn.STDEV.S(x_sample)</f>
         <v>3.89444048184931</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="40" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -3980,12 +4067,12 @@
         <v>94</v>
       </c>
       <c r="G23" s="38" t="n">
-        <f aca="false">_xlfn.STDEV.S(C7:C19)</f>
-        <v>160.524660618445</v>
+        <f aca="false">_xlfn.STDEV.S(y_sample)</f>
+        <v>160.524660618444</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="40" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -3999,12 +4086,12 @@
         <v>52</v>
       </c>
       <c r="G24" s="38" t="n">
-        <f aca="false">PEARSON(B7:B19,C7:C19)</f>
-        <v>0.970427962120069</v>
+        <f aca="false">PEARSON(x_sample,y_sample)</f>
+        <v>0.970427962120068</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="40" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -4015,15 +4102,15 @@
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="34" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G25" s="41" t="n">
-        <f aca="false">RSQ(C7:C19,B7:B19)</f>
-        <v>0.941730429664511</v>
+        <f aca="false">RSQ(y_sample,x_sample)</f>
+        <v>0.941730429664509</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="40" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -4038,7 +4125,7 @@
       </c>
       <c r="G26" s="41" t="n">
         <f aca="false">1-(1-G25)*G10/G11</f>
-        <v>0.936433195997648</v>
+        <v>0.936433195997646</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="40" t="s">
@@ -4056,12 +4143,12 @@
         <v>100</v>
       </c>
       <c r="G27" s="38" t="n">
-        <f aca="false" t="array" ref="G27:G27">SUMSQ(C7:C19-D7:D19)</f>
-        <v>18017.9999999995</v>
+        <f aca="false" t="array" ref="G27:G27">SUMSQ(y_sample-y_fit)</f>
+        <v>18018</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="40" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -4076,7 +4163,7 @@
       </c>
       <c r="G28" s="38" t="n">
         <f aca="false">G27/G11</f>
-        <v>1637.99999999995</v>
+        <v>1638</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="40" t="s">
@@ -4095,7 +4182,7 @@
       </c>
       <c r="G29" s="38" t="n">
         <f aca="false">SQRT(G28/G14)</f>
-        <v>2.99999999999996</v>
+        <v>3</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="40" t="s">
@@ -4114,7 +4201,7 @@
       </c>
       <c r="G30" s="38" t="n">
         <f aca="false">G17/G29</f>
-        <v>13.3333333333336</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="40" t="s">
@@ -4133,7 +4220,7 @@
       </c>
       <c r="G31" s="42" t="n">
         <f aca="false">_xlfn.T.DIST.2T(G30,G11)</f>
-        <v>3.91117071946751E-008</v>
+        <v>3.91117071946834E-008</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="44" t="s">
@@ -4165,6 +4252,11 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4177,7 +4269,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4196,7 +4288,7 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="45"/>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -4208,7 +4300,7 @@
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="45"/>
       <c r="B4" s="47" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C4" s="47"/>
       <c r="I4" s="2"/>
@@ -4216,22 +4308,22 @@
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -4244,7 +4336,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>61</v>
@@ -4269,7 +4361,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F7" s="48" t="s">
         <v>61</v>
@@ -4294,7 +4386,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>61</v>
@@ -4319,10 +4411,10 @@
         <v>44</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G9" s="21" t="n">
         <f aca="false">SUM(B6:B18)/COUNT(B6:B18)</f>
@@ -4344,7 +4436,7 @@
         <v>69</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>61</v>
@@ -4369,10 +4461,10 @@
         <v>100</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G11" s="21" t="n">
         <f aca="false" t="array" ref="G11:G11">SUM((B6:B18 - G9)^2)/(COUNT(B6:B18)-1)</f>
@@ -4394,7 +4486,7 @@
         <v>137</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>61</v>
@@ -4419,10 +4511,10 @@
         <v>180</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G13" s="21" t="n">
         <f aca="false">SQRT(G11)</f>
@@ -4444,10 +4536,10 @@
         <v>229</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G14" s="21" t="n">
         <f aca="false">G12/SQRT(G7)</f>
@@ -4487,10 +4579,10 @@
         <v>68</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -4530,7 +4622,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G18" s="21" t="n">
         <f aca="false" t="array" ref="G18:G18">SUM((B6:B18-G9)*(C6:C18-H9))/(COUNT(B6:B18)-1)</f>
@@ -4542,7 +4634,7 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="45"/>
       <c r="E19" s="34" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F19" s="48" t="s">
         <v>61</v>
@@ -4557,13 +4649,13 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="45"/>
       <c r="B20" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G20" s="21" t="n">
         <f aca="false">G18/(G13*H13)</f>
@@ -4575,13 +4667,13 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G21" s="21" t="n">
         <f aca="false" t="array" ref="G21:G21">SUM((B6:B18 - G9)*(C6:C18 - H9))/SQRT(SUM((B6:B18 - G9)^2)*SUM((C6:C18 - H9)^2))</f>
@@ -4593,7 +4685,7 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="45"/>
       <c r="E22" s="34" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F22" s="48" t="s">
         <v>61</v>
@@ -4608,16 +4700,16 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="45"/>
       <c r="B23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="48" t="s">
         <v>139</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>130</v>
       </c>
       <c r="G23" s="21" t="n">
         <f aca="false" t="array" ref="G23:G23">SUM((B6:B18 - G9)*(C6:C18 - H9))/SUM((B6:B18 - G9)^2)</f>
@@ -4636,7 +4728,7 @@
         <v>-61</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F24" s="48" t="s">
         <v>61</v>
@@ -4651,10 +4743,10 @@
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="45"/>
       <c r="E25" s="34" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G25" s="21" t="n">
         <f aca="false">H8-G23*G8</f>
@@ -4666,7 +4758,7 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="45"/>
       <c r="E26" s="34" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F26" s="48" t="s">
         <v>61</v>
@@ -4680,10 +4772,10 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="45"/>
       <c r="E27" s="34" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G27" s="21" t="n">
         <f aca="false" t="array" ref="G27:G27">1-SUM((C6:C18 - (B6:B18*G22+G24))^2)/SUM((C6:C18 - H9)^2)</f>
@@ -4694,10 +4786,10 @@
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="45"/>
       <c r="E28" s="34" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G28" s="21" t="n">
         <f aca="false">1-(1-G26)*(G7-1)/(G7-1-1)</f>
@@ -4708,10 +4800,10 @@
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="45"/>
       <c r="E29" s="34" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G29" s="21" t="n">
         <f aca="false" t="array" ref="G29:G29">SQRT(SUM((C6:C18 - (B6:B18*G22+G24))^2)/(G7-1))</f>
@@ -4722,10 +4814,10 @@
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="45"/>
       <c r="E30" s="34" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G30" s="21" t="n">
         <f aca="false" t="array" ref="G30:G30">SUM((C6:C18 - (B6:B18*G22+G24))^2)/(G7-2)</f>
@@ -4917,7 +5009,7 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="45"/>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -4931,18 +5023,18 @@
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="45"/>
       <c r="B4" s="47" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C4" s="47"/>
       <c r="E4" s="49" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="K4" s="49" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
@@ -4950,10 +5042,10 @@
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
@@ -4962,7 +5054,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>11</v>
@@ -4972,13 +5064,13 @@
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="52" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L5" s="53" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5554,7 +5646,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H19" s="51" t="s">
         <v>21</v>
@@ -5563,10 +5655,10 @@
         <v>23</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5610,7 +5702,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="E21" s="34" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="57"/>
@@ -5653,7 +5745,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="57"/>
@@ -5676,7 +5768,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="57"/>
@@ -5693,7 +5785,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="E25" s="34" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F25" s="48"/>
       <c r="G25" s="57"/>
@@ -5712,7 +5804,7 @@
       </c>
       <c r="C26" s="17"/>
       <c r="E26" s="34" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F26" s="48"/>
       <c r="G26" s="57"/>
@@ -5733,10 +5825,10 @@
         <v>47</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
@@ -5758,10 +5850,10 @@
         <v>179</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
@@ -5888,7 +5980,7 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5916,7 +6008,7 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="45"/>
       <c r="B2" s="5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -5941,20 +6033,20 @@
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="45"/>
       <c r="B4" s="59" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C4" s="60"/>
       <c r="E4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="59" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K4" s="61"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="59" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="S4" s="61"/>
       <c r="T4" s="2"/>
@@ -5964,17 +6056,17 @@
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E5" s="2"/>
       <c r="I5" s="45"/>
       <c r="J5" s="4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M5" s="2"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="U5" s="2"/>
       <c r="Y5" s="2"/>
@@ -5991,7 +6083,7 @@
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="45"/>
       <c r="B7" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>69</v>
@@ -5999,7 +6091,7 @@
       <c r="E7" s="2"/>
       <c r="I7" s="45"/>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>69</v>
@@ -6007,7 +6099,7 @@
       <c r="M7" s="2"/>
       <c r="Q7" s="45"/>
       <c r="R7" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="S7" s="8" t="s">
         <v>69</v>
@@ -6018,7 +6110,7 @@
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="45"/>
       <c r="B8" s="62" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>5</v>
@@ -6026,7 +6118,7 @@
       <c r="E8" s="2"/>
       <c r="I8" s="45"/>
       <c r="J8" s="62" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="K8" s="12" t="n">
         <v>5</v>
@@ -6034,7 +6126,7 @@
       <c r="M8" s="2"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="62" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="S8" s="12" t="n">
         <v>5</v>
@@ -6045,7 +6137,7 @@
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="45"/>
       <c r="B9" s="62" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>4</v>
@@ -6053,7 +6145,7 @@
       <c r="E9" s="2"/>
       <c r="I9" s="45"/>
       <c r="J9" s="62" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="K9" s="12" t="n">
         <v>4</v>
@@ -6061,7 +6153,7 @@
       <c r="M9" s="2"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="62" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="S9" s="12" t="n">
         <v>4</v>
@@ -6076,7 +6168,7 @@
       <c r="E10" s="2"/>
       <c r="I10" s="45"/>
       <c r="J10" s="62" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K10" s="12" t="n">
         <v>3</v>
@@ -6084,7 +6176,7 @@
       <c r="M10" s="2"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="62" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="S10" s="12" t="n">
         <v>3</v>
@@ -6103,7 +6195,7 @@
       <c r="M11" s="2"/>
       <c r="Q11" s="45"/>
       <c r="R11" s="62" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="S11" s="12" t="n">
         <v>2</v>
@@ -6136,7 +6228,7 @@
         <v>61</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I13" s="45"/>
       <c r="J13" s="7" t="s">
@@ -6153,7 +6245,7 @@
         <v>61</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="45"/>
       <c r="R13" s="7" t="s">
@@ -6170,7 +6262,7 @@
         <v>61</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Y13" s="2"/>
     </row>
@@ -6185,7 +6277,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="34" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G14" s="21" t="n">
         <f aca="false">SUM(B14:B26)</f>
@@ -6202,7 +6294,7 @@
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="34" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="O14" s="21" t="n">
         <f aca="false">SUM(J14:J26)</f>
@@ -6219,7 +6311,7 @@
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="34" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="W14" s="21" t="n">
         <f aca="false">SUM(R14:R26)</f>
@@ -6240,7 +6332,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G15" s="21" t="n">
         <f aca="false">SUM(C14:C26)</f>
@@ -6258,7 +6350,7 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O15" s="21" t="n">
         <f aca="false">SUM(K14:K26)</f>
@@ -6276,7 +6368,7 @@
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="34" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="W15" s="21" t="n">
         <f aca="false">SUM(S14:S26)</f>
@@ -6297,7 +6389,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G16" s="21" t="n">
         <f aca="false">COUNT(B14:B26)</f>
@@ -6315,7 +6407,7 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="O16" s="21" t="n">
         <f aca="false">COUNT(J14:J26)</f>
@@ -6333,7 +6425,7 @@
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="34" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="W16" s="21" t="n">
         <f aca="false">COUNT(R14:R26)</f>
@@ -6354,7 +6446,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G17" s="21" t="n">
         <f aca="false">COUNT(C14:C26)</f>
@@ -6372,7 +6464,7 @@
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="O17" s="21" t="n">
         <f aca="false">COUNT(K14:K26)</f>
@@ -6390,7 +6482,7 @@
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="34" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="W17" s="21" t="n">
         <f aca="false">COUNT(S14:S26)</f>
@@ -6411,7 +6503,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="34" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G18" s="21" t="n">
         <f aca="false">AVERAGE(B14:B26)</f>
@@ -6432,7 +6524,7 @@
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="34" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="O18" s="21" t="n">
         <f aca="false">AVERAGE(J14:J26)</f>
@@ -6453,7 +6545,7 @@
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="34" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="W18" s="21" t="n">
         <f aca="false">AVERAGE(R14:R26)</f>
@@ -6477,7 +6569,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="34" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G19" s="21" t="n">
         <f aca="false">AVERAGE(C14:C26)</f>
@@ -6498,7 +6590,7 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="34" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O19" s="21" t="n">
         <f aca="false">AVERAGE(K14:K26)</f>
@@ -6519,7 +6611,7 @@
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="34" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="W19" s="21" t="n">
         <f aca="false">AVERAGE(S14:S26)</f>
@@ -6543,7 +6635,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="34" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(B14:B26)</f>
@@ -6564,7 +6656,7 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="34" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="O20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(J14:J26)</f>
@@ -6585,7 +6677,7 @@
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="34" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="W20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(R14:R26)</f>
@@ -6609,7 +6701,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="34" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(C14:C26)</f>
@@ -6630,7 +6722,7 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="34" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="O21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(K14:K26)</f>
@@ -6651,7 +6743,7 @@
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="34" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="W21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(S14:S26)</f>
@@ -6675,7 +6767,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="34" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(B14:B26)</f>
@@ -6696,7 +6788,7 @@
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="34" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="O22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(J14:J26)</f>
@@ -6717,7 +6809,7 @@
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="34" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="W22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(R14:R26)</f>
@@ -6741,7 +6833,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="34" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(C14:C26)</f>
@@ -6762,7 +6854,7 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="34" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="O23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(K14:K26)</f>
@@ -6783,7 +6875,7 @@
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="34" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="W23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(S14:S26)</f>
@@ -6873,7 +6965,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="34" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G25" s="21" t="n">
         <f aca="false">PEARSON(B14:B26,C14:C26)</f>
@@ -6894,7 +6986,7 @@
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="34" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="O25" s="21" t="n">
         <f aca="false">PEARSON(J14:J26,K14:K26)</f>
@@ -6915,7 +7007,7 @@
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="34" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="W25" s="21" t="n">
         <f aca="false">PEARSON(R14:R26,S14:S26)</f>
@@ -6984,7 +7076,7 @@
       <c r="C27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="34" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G27" s="21" t="n">
         <f aca="false">SLOPE(B14:B26,C14:C26)</f>
@@ -6999,7 +7091,7 @@
       <c r="K27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="34" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="O27" s="21" t="n">
         <f aca="false">SLOPE(J14:J26,K14:K26)</f>
@@ -7014,7 +7106,7 @@
       <c r="S27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="34" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="W27" s="21" t="n">
         <f aca="false">SLOPE(R14:R26,S14:S26)</f>
